--- a/TI_result.xlsx
+++ b/TI_result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreatHuntingToolBuilding\CheckATTCK\CheckATTCKTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10118,7 +10118,7 @@
   <dimension ref="A1:E1300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D740" sqref="D740"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="84.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10178,7 +10178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>175</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>183</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>199</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>222</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>230</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>242</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>252</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>277</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>297</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>346</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>356</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>367</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>380</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>380</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>389</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>389</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>396</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>400</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>410</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>416</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>419</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>422</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>438</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>442</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>491</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>495</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>522</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>76</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>549</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>563</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>575</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>579</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>611</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>634</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>647</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>674</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>692</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>710</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>726</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>730</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>743</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>749</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>756</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>760</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>770</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>788</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>792</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>800</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>818</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>853</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>861</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>873</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>903</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>906</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>939</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>957</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>969</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>991</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>994</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>998</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1002</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1005</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1034</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1045</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>1053</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>1077</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>1095</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>1114</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>1118</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>1122</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>1129</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>1142</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>1148</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>1158</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>1168</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>1175</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>1198</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>1201</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>1205</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>1210</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>1225</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>1252</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>1270</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>1291</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>222</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>230</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>491</v>
       </c>
@@ -16634,7 +16634,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>495</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>522</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>1291</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>549</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>611</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>1270</v>
       </c>
@@ -17015,7 +17015,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>297</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>647</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>356</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>674</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>346</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>710</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>726</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1411</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>1414</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>730</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1420</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>1424</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>749</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>1430</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>1451</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1470</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1490</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1494</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>1505</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>1517</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1525</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1528</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>1595</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1606</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>873</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1625</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>853</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1525</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1528</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>1002</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>1005</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>1517</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>1490</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>1494</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>1065</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>1034</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>1675</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>1077</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>1045</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>1114</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>1118</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>1129</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>1142</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>1747</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>1751</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>1158</v>
       </c>
@@ -19884,7 +19884,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>1168</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>575</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>1779</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>563</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>1790</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>1800</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1803</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>1806</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>1846</v>
       </c>
@@ -20407,7 +20407,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>1849</v>
       </c>
@@ -20422,7 +20422,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>1852</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>1864</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>1887</v>
       </c>
@@ -20639,7 +20639,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>1895</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>579</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>252</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>111</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>88</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>277</v>
       </c>
@@ -21197,7 +21197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>115</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>242</v>
       </c>
@@ -21280,7 +21280,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>396</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>756</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>1411</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>743</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>692</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>367</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>634</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>1414</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>2024</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>1420</v>
       </c>
@@ -22094,7 +22094,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>1424</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>1430</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>2036</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>2040</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>2054</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>2069</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>2072</v>
       </c>
@@ -22391,7 +22391,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>2087</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>2103</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>2107</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>2111</v>
       </c>
@@ -22519,7 +22519,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>2115</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>903</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>2165</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>2179</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>957</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>994</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>969</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>998</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>1053</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>2256</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="824" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>2266</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>906</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>2271</v>
       </c>
@@ -23468,7 +23468,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="828" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>818</v>
       </c>
@@ -23517,7 +23517,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>2279</v>
       </c>
@@ -23760,7 +23760,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>991</v>
       </c>
@@ -23824,7 +23824,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="850" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>2318</v>
       </c>
@@ -23839,7 +23839,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="851" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>861</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="856" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>1095</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>1122</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>2344</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="869" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>1148</v>
       </c>
@@ -24164,7 +24164,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>1751</v>
       </c>
@@ -24230,7 +24230,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>1175</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>1763</v>
       </c>
@@ -24339,7 +24339,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="883" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>1747</v>
       </c>
@@ -24452,7 +24452,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
         <v>2179</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="892" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
         <v>2165</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>2426</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>2429</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>2432</v>
       </c>
@@ -24661,7 +24661,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>2441</v>
       </c>
@@ -24723,7 +24723,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>2453</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="921" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
         <v>2271</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
         <v>939</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>1595</v>
       </c>
@@ -25400,7 +25400,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="948" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
         <v>2103</v>
       </c>
@@ -25468,7 +25468,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
         <v>1625</v>
       </c>
@@ -25500,7 +25500,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
         <v>1675</v>
       </c>
@@ -25532,7 +25532,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="956" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
         <v>2318</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="959" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>2545</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
         <v>2549</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
         <v>2553</v>
       </c>
@@ -25679,7 +25679,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="965" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
         <v>2266</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="973" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
         <v>1606</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="977" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>1658</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="982" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
         <v>2256</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
         <v>2344</v>
       </c>
@@ -26452,7 +26452,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="1014" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
         <v>2634</v>
       </c>
@@ -26467,7 +26467,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="1015" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
         <v>2634</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="1018" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
         <v>2643</v>
       </c>
@@ -26527,7 +26527,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="1019" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
         <v>2643</v>
       </c>
@@ -26666,7 +26666,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="1028" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
         <v>2664</v>
       </c>
@@ -26711,7 +26711,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="1031" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1031" s="1" t="s">
         <v>2673</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="1032" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1032" s="1" t="s">
         <v>2676</v>
       </c>
@@ -26835,7 +26835,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="1039" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
         <v>2545</v>
       </c>
@@ -26867,7 +26867,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="1041" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
         <v>2549</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="1043" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
         <v>2279</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="1046" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
         <v>2553</v>
       </c>
@@ -27052,7 +27052,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="1052" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1052" s="1" t="s">
         <v>2723</v>
       </c>
@@ -27084,7 +27084,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1054" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
         <v>2730</v>
       </c>
@@ -27133,7 +27133,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="1057" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
         <v>2723</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1061" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
         <v>2730</v>
       </c>
@@ -27263,7 +27263,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="1065" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
         <v>2757</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="1066" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
         <v>2757</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="1070" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1070" s="1" t="s">
         <v>2115</v>
       </c>
@@ -27493,7 +27493,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="1079" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
         <v>2782</v>
       </c>
@@ -27542,7 +27542,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1082" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
         <v>2796</v>
       </c>
@@ -27642,7 +27642,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="1088" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1088" s="1" t="s">
         <v>2811</v>
       </c>
@@ -27829,7 +27829,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1099" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
         <v>2811</v>
       </c>
@@ -27929,7 +27929,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="1105" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
         <v>2796</v>
       </c>
@@ -28221,7 +28221,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="1123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
         <v>2863</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="1125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
         <v>2869</v>
       </c>
@@ -28272,7 +28272,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="1126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
         <v>2869</v>
       </c>
@@ -28411,7 +28411,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="1135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1135" s="1" t="s">
         <v>1179</v>
       </c>
@@ -28653,7 +28653,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="1151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1151" s="1" t="s">
         <v>2863</v>
       </c>
@@ -28762,7 +28762,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="1158" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1158" s="1" t="s">
         <v>1198</v>
       </c>
@@ -28794,7 +28794,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1160" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1160" s="1" t="s">
         <v>2933</v>
       </c>
@@ -28811,7 +28811,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="1161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1161" s="1" t="s">
         <v>2937</v>
       </c>
@@ -28860,7 +28860,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1164" s="1" t="s">
         <v>2945</v>
       </c>
@@ -28877,7 +28877,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="1165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1165" s="1" t="s">
         <v>2948</v>
       </c>
@@ -28922,7 +28922,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="1168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1168" s="1" t="s">
         <v>2957</v>
       </c>
@@ -28967,7 +28967,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="1171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1171" s="1" t="s">
         <v>2966</v>
       </c>
@@ -28982,7 +28982,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="1172" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1172" s="1" t="s">
         <v>2969</v>
       </c>
@@ -29027,7 +29027,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="1175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1175" s="1" t="s">
         <v>2978</v>
       </c>
@@ -29059,7 +29059,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="1177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1177" s="1" t="s">
         <v>2985</v>
       </c>
@@ -29076,7 +29076,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="1178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1178" s="1" t="s">
         <v>2989</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="1180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1180" s="1" t="s">
         <v>175</v>
       </c>
@@ -29174,7 +29174,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1184" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1184" s="1" t="s">
         <v>183</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="1190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1190" s="1" t="s">
         <v>3013</v>
       </c>
@@ -29306,7 +29306,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="1192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1192" s="1" t="s">
         <v>3021</v>
       </c>
@@ -29370,7 +29370,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="1196" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1196" s="1" t="s">
         <v>3033</v>
       </c>
@@ -29385,7 +29385,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="1197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1197" s="1" t="s">
         <v>3036</v>
       </c>
@@ -29417,7 +29417,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="1199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1199" s="1" t="s">
         <v>3039</v>
       </c>
@@ -29432,7 +29432,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="1200" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1200" s="1" t="s">
         <v>3033</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="1207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1207" s="1" t="s">
         <v>131</v>
       </c>
@@ -29602,7 +29602,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1210" s="1" t="s">
         <v>3021</v>
       </c>
@@ -29619,7 +29619,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="1211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
         <v>3013</v>
       </c>
@@ -29738,7 +29738,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="1218" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1218" s="1" t="s">
         <v>2933</v>
       </c>
@@ -29755,7 +29755,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="1219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1219" s="1" t="s">
         <v>2937</v>
       </c>
@@ -29804,7 +29804,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="1222" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1222" s="1" t="s">
         <v>1779</v>
       </c>
@@ -29906,7 +29906,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="1228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1228" s="1" t="s">
         <v>1887</v>
       </c>
@@ -29923,7 +29923,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="1229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1229" s="1" t="s">
         <v>1895</v>
       </c>
@@ -29974,7 +29974,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="1232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1232" s="1" t="s">
         <v>1849</v>
       </c>
@@ -29989,7 +29989,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="1233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1233" s="1" t="s">
         <v>1852</v>
       </c>
@@ -30040,7 +30040,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="1236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1236" s="1" t="s">
         <v>1864</v>
       </c>
@@ -30091,7 +30091,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="1239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1239" s="1" t="s">
         <v>3036</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="1244" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1244" s="1" t="s">
         <v>3108</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1245" s="1" t="s">
         <v>3108</v>
       </c>
@@ -30319,7 +30319,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="1253" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1253" s="1" t="s">
         <v>3133</v>
       </c>
@@ -30336,7 +30336,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="1254" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1254" s="1" t="s">
         <v>3133</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="1258" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1258" s="1" t="s">
         <v>3144</v>
       </c>
@@ -30706,7 +30706,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="1278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1278" s="1" t="s">
         <v>3144</v>
       </c>
@@ -30757,7 +30757,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="1281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1281" s="1" t="s">
         <v>3195</v>
       </c>
@@ -30774,7 +30774,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="1282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1282" s="1" t="s">
         <v>3195</v>
       </c>
@@ -30994,7 +30994,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="1296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1296" s="1" t="s">
         <v>2024</v>
       </c>
@@ -31041,7 +31041,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1299" s="1" t="s">
         <v>2036</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="1300" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1300" s="1" t="s">
         <v>2040</v>
       </c>
@@ -31079,6 +31079,7 @@
   <autoFilter ref="A1:E1300">
     <filterColumn colId="2">
       <filters>
+        <filter val="11"/>
         <filter val="16"/>
       </filters>
     </filterColumn>

--- a/TI_result.xlsx
+++ b/TI_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreatHuntingToolBuilding\CheckATTCK\CheckATTCKTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\DetectATTCK\CheckATTCKTools\CheckATTCKTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2BB1CA-09F6-4B0A-A0C3-1F835A348609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +29,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="result" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="result" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\Work\result.csv" decimal="," thousands="." delimiter="#">
       <textFields count="5">
         <textField/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="3236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4667" uniqueCount="3278">
   <si>
     <t>2019-12-12T17:57:36</t>
   </si>
@@ -9752,12 +9753,138 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Một lỗ hổng thực thi mã từ xa tồn tại trong cách Máy chủ TFTP của Windows Deployment Services xử lý các đối tượng trong bộ nhớ</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2018-8476</t>
+  </si>
+  <si>
+    <t>Một trong các lib của Task Scheduler service có function tsched::SetJobFileSecurityByName() có thể set permission của job file</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2019-1069</t>
+  </si>
+  <si>
+    <t>Một lỗ hổng thực thi mã từ xa tồn tại trong Microsoft Outlook khi phần mềm không xử lý đúng các đối tượng trong bộ nhớ. Kẻ tấn công khai thác thành công lỗ hổng có thể chạy mã tùy ý trong ngữ cảnh của người dùng hiện tại. Nếu người dùng hiện tại đăng nhập với quyền người dùng quản trị, kẻ tấn công có thể kiểm soát hệ thống bị ảnh hưởng. Kẻ tấn công sau đó có thể cài đặt các chương trình; xem, thay đổi hoặc xóa dữ liệu; hoặc tạo tài khoản mới với đầy đủ quyền của người dùng.</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2019-1200 và https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2019-1199</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2019-1040 và https://msrc.microsoft.com/update-guide/vulnerability/CVE-2019-1019</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2020-0646</t>
+  </si>
+  <si>
+    <t>Một lỗ hổng thực thi mã từ xa tồn tại khi Microsoft .NET Framework không thể xác thực đầu vào đúng cách</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-us/vulnerability/CVE-2020-0796</t>
+  </si>
+  <si>
+    <t>Một lỗ hổng thực thi mã từ xa tồn tại trong cách giao thức Microsoft Server Message Block 3.1.1 (SMBv3) xử lý các yêu cầu nhất định. Kẻ tấn công khai thác thành công lỗ hổng có thể có được khả năng thực thi mã trên máy chủ hoặc máy khách mục tiêu</t>
+  </si>
+  <si>
+    <t>Một lỗ hổng thực thi mã từ xa tồn tại trong Microsoft SQL Server Reporting Services khi nó xử lý sai các yêu cầu trang. Kẻ tấn công đã khai thác thành công lỗ hổng này có thể thực thi mã trong ngữ cảnh của tài khoản Report Server service</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2020-0618</t>
+  </si>
+  <si>
+    <t>Một lỗ hổng thực thi mã từ xa tồn tại trong cách mà công cụ tập lệnh xử lý các đối tượng trong bộ nhớ trong Internet Explorer. Lỗ hổng có thể làm hỏng bộ nhớ theo cách mà kẻ tấn công có thể thực thi mã tùy ý trong ngữ cảnh của người dùng hiện tại. Kẻ tấn công đã khai thác thành công lỗ hổng bảo mật có thể có được các quyền của người dùng giống như người dùng hiện tại</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2019-1429</t>
+  </si>
+  <si>
+    <t>Một lỗ hổng thực thi mã từ xa tồn tại trong Microsoft Exchange Server khi máy chủ không tạo đúng cách các khóa duy nhất tại thời điểm cài đặt. Kiến thức về khóa xác thực cho phép người dùng đã xác thực có hộp thư chuyển các đối tượng tùy ý được ứng dụng web, ứng dụng này chạy dưới dạng SYSTEM</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2020-0688</t>
+  </si>
+  <si>
+    <t>lỗ hổng thực thi mã từ xa tồn tại trong .NET Framework, Microsoft SharePoint và Visual Studio khi phần mềm không thể kiểm tra đánh dấu nguồn của đầu vào tệp XML</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2020-1147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Một lỗ hổng thực thi mã từ xa tồn tại trong phần mềm Microsoft Office khi phần mềm không xử lý đúng các đối tượng trong bộ nhớ. Kẻ tấn công khai thác thành công lỗ hổng có thể chạy mã tùy ý trong ngữ cảnh của người dùng hiện tại. </t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2017-11882</t>
+  </si>
+  <si>
+    <t>Lỗ hổng đặc quyền nâng cao tồn tại trong Windows khi thành phần Win32k không xử lý đúng các đối tượng trong bộ nhớ. Kẻ tấn công đã khai thác thành công lỗ hổng này có thể chạy mã tùy ý trong kernel mode</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2019-0797</t>
+  </si>
+  <si>
+    <t>unpatch và chưa có cách tiếp cận</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2019-1201 và https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2019-1205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Một lỗ hổng thực thi mã từ xa tồn tại trong phần mềm Microsoft Word khi phần mềm này không xử lý đúng các đối tượng trong bộ nhớ. </t>
+  </si>
+  <si>
+    <t>Một lỗ hổng thực thi mã từ xa tồn tại trong cách mà công cụ VBScript xử lý các đối tượng trong bộ nhớ. Lỗ hổng có thể làm hỏng bộ nhớ theo cách mà kẻ tấn công có thể thực thi mã tùy ý trong ngữ cảnh của người dùng hiện tại</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2019-1390</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2020-1181</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2020-16898</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2021-26855</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2021-24093</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2020-17143</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2019-1181 và https://msrc.microsoft.com/update-guide/vulnerability/CVE-2019-1182</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2019-1333</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2020-0674</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2020-1472</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2020-17141</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2019-0736</t>
+  </si>
+  <si>
+    <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2020-0688</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -9781,12 +9908,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -9816,7 +9949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9829,6 +9962,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9848,7 +9993,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10113,12 +10258,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E1300"/>
+  <dimension ref="A1:G1047966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="A417" sqref="A417:XFD417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="84.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10127,11 +10272,14 @@
     <col min="2" max="2" width="37.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="70.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="84.875" style="2"/>
+    <col min="5" max="5" width="67.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="54.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="84.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3231</v>
       </c>
@@ -10147,8 +10295,14 @@
       <c r="E1" s="3" t="s">
         <v>3235</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10162,8 +10316,10 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -10177,8 +10333,10 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -10194,8 +10352,10 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -10211,8 +10371,10 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -10228,8 +10390,10 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -10245,8 +10409,10 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -10260,8 +10426,10 @@
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -10275,23 +10443,31 @@
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>3237</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -10305,23 +10481,31 @@
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>3240</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -10335,25 +10519,33 @@
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>3242</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -10367,8 +10559,10 @@
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -10382,23 +10576,29 @@
       <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -10412,8 +10612,10 @@
       <c r="E18" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -10429,8 +10631,10 @@
       <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -10446,8 +10650,10 @@
       <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -10463,8 +10669,10 @@
       <c r="E21" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -10480,8 +10688,10 @@
       <c r="E22" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -10497,8 +10707,10 @@
       <c r="E23" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -10514,8 +10726,10 @@
       <c r="E24" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -10531,8 +10745,10 @@
       <c r="E25" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -10548,25 +10764,33 @@
       <c r="E26" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
         <v>11</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="s">
+        <v>3246</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -10582,8 +10806,10 @@
       <c r="E28" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -10599,8 +10825,10 @@
       <c r="E29" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>100</v>
       </c>
@@ -10616,8 +10844,10 @@
       <c r="E30" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -10631,8 +10861,10 @@
       <c r="E31" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -10648,42 +10880,56 @@
       <c r="E32" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="6">
         <v>11</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="F33" s="5" t="s">
+        <v>3248</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="6">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="5" t="s">
+        <v>3249</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
@@ -10699,8 +10945,10 @@
       <c r="E35" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
@@ -10716,8 +10964,10 @@
       <c r="E36" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>127</v>
       </c>
@@ -10733,25 +10983,33 @@
       <c r="E37" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="6">
         <v>11</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="5" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>135</v>
       </c>
@@ -10765,8 +11023,10 @@
       <c r="E39" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
@@ -10780,8 +11040,10 @@
       <c r="E40" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>141</v>
       </c>
@@ -10797,8 +11059,10 @@
       <c r="E41" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -10814,8 +11078,10 @@
       <c r="E42" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>149</v>
       </c>
@@ -10831,8 +11097,10 @@
       <c r="E43" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>153</v>
       </c>
@@ -10848,8 +11116,10 @@
       <c r="E44" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>156</v>
       </c>
@@ -10865,8 +11135,10 @@
       <c r="E45" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -10882,8 +11154,10 @@
       <c r="E46" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
@@ -10899,8 +11173,10 @@
       <c r="E47" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
@@ -10914,8 +11190,10 @@
       <c r="E48" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
@@ -10931,8 +11209,10 @@
       <c r="E49" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>175</v>
       </c>
@@ -10948,8 +11228,10 @@
       <c r="E50" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>179</v>
       </c>
@@ -10965,8 +11247,10 @@
       <c r="E51" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>183</v>
       </c>
@@ -10982,8 +11266,10 @@
       <c r="E52" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>187</v>
       </c>
@@ -10997,8 +11283,10 @@
       <c r="E53" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>190</v>
       </c>
@@ -11012,8 +11300,10 @@
       <c r="E54" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>193</v>
       </c>
@@ -11027,8 +11317,10 @@
       <c r="E55" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>196</v>
       </c>
@@ -11042,8 +11334,10 @@
       <c r="E56" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>199</v>
       </c>
@@ -11057,8 +11351,10 @@
       <c r="E57" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>202</v>
       </c>
@@ -11072,8 +11368,10 @@
       <c r="E58" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>205</v>
       </c>
@@ -11089,8 +11387,10 @@
       <c r="E59" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>209</v>
       </c>
@@ -11104,8 +11404,10 @@
       <c r="E60" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>212</v>
       </c>
@@ -11121,8 +11423,10 @@
       <c r="E61" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>215</v>
       </c>
@@ -11136,8 +11440,10 @@
       <c r="E62" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>218</v>
       </c>
@@ -11153,8 +11459,10 @@
       <c r="E63" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>222</v>
       </c>
@@ -11170,8 +11478,10 @@
       <c r="E64" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>226</v>
       </c>
@@ -11187,8 +11497,10 @@
       <c r="E65" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>230</v>
       </c>
@@ -11204,8 +11516,10 @@
       <c r="E66" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>234</v>
       </c>
@@ -11221,8 +11535,10 @@
       <c r="E67" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>238</v>
       </c>
@@ -11238,8 +11554,10 @@
       <c r="E68" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>242</v>
       </c>
@@ -11253,8 +11571,10 @@
       <c r="E69" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>245</v>
       </c>
@@ -11268,8 +11588,10 @@
       <c r="E70" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>248</v>
       </c>
@@ -11285,8 +11607,10 @@
       <c r="E71" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>252</v>
       </c>
@@ -11302,8 +11626,10 @@
       <c r="E72" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>256</v>
       </c>
@@ -11317,8 +11643,10 @@
       <c r="E73" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>259</v>
       </c>
@@ -11334,8 +11662,10 @@
       <c r="E74" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>263</v>
       </c>
@@ -11351,8 +11681,10 @@
       <c r="E75" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>267</v>
       </c>
@@ -11368,8 +11700,10 @@
       <c r="E76" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>271</v>
       </c>
@@ -11383,8 +11717,10 @@
       <c r="E77" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>274</v>
       </c>
@@ -11398,25 +11734,33 @@
       <c r="E78" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="6">
         <v>11</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="5" t="s">
+        <v>3253</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>281</v>
       </c>
@@ -11430,8 +11774,10 @@
       <c r="E80" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>284</v>
       </c>
@@ -11447,8 +11793,10 @@
       <c r="E81" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>288</v>
       </c>
@@ -11464,8 +11812,10 @@
       <c r="E82" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>288</v>
       </c>
@@ -11481,8 +11831,10 @@
       <c r="E83" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>293</v>
       </c>
@@ -11498,23 +11850,31 @@
       <c r="E84" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="6">
         <v>11</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="5" t="s">
+        <v>3255</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>300</v>
       </c>
@@ -11530,8 +11890,10 @@
       <c r="E86" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>304</v>
       </c>
@@ -11547,8 +11909,10 @@
       <c r="E87" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>308</v>
       </c>
@@ -11564,8 +11928,10 @@
       <c r="E88" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>311</v>
       </c>
@@ -11579,8 +11945,10 @@
       <c r="E89" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>314</v>
       </c>
@@ -11594,8 +11962,10 @@
       <c r="E90" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>317</v>
       </c>
@@ -11609,8 +11979,10 @@
       <c r="E91" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>320</v>
       </c>
@@ -11624,8 +11996,10 @@
       <c r="E92" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>323</v>
       </c>
@@ -11641,8 +12015,10 @@
       <c r="E93" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>327</v>
       </c>
@@ -11656,8 +12032,10 @@
       <c r="E94" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>330</v>
       </c>
@@ -11673,8 +12051,9 @@
       <c r="E95" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>334</v>
       </c>
@@ -11688,8 +12067,9 @@
       <c r="E96" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>337</v>
       </c>
@@ -11703,8 +12083,9 @@
       <c r="E97" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>340</v>
       </c>
@@ -11718,8 +12099,9 @@
       <c r="E98" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>343</v>
       </c>
@@ -11733,8 +12115,9 @@
       <c r="E99" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>346</v>
       </c>
@@ -11750,8 +12133,9 @@
       <c r="E100" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>350</v>
       </c>
@@ -11765,8 +12149,9 @@
       <c r="E101" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>353</v>
       </c>
@@ -11780,8 +12165,9 @@
       <c r="E102" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>356</v>
       </c>
@@ -11797,8 +12183,9 @@
       <c r="E103" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>360</v>
       </c>
@@ -11812,8 +12199,9 @@
       <c r="E104" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>363</v>
       </c>
@@ -11829,8 +12217,9 @@
       <c r="E105" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>367</v>
       </c>
@@ -11846,8 +12235,9 @@
       <c r="E106" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>371</v>
       </c>
@@ -11861,8 +12251,9 @@
       <c r="E107" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>374</v>
       </c>
@@ -11876,8 +12267,9 @@
       <c r="E108" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>377</v>
       </c>
@@ -11891,8 +12283,9 @@
       <c r="E109" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>380</v>
       </c>
@@ -11906,8 +12299,9 @@
       <c r="E110" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>380</v>
       </c>
@@ -11921,8 +12315,9 @@
       <c r="E111" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>385</v>
       </c>
@@ -11938,8 +12333,9 @@
       <c r="E112" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>389</v>
       </c>
@@ -11955,8 +12351,9 @@
       <c r="E113" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>389</v>
       </c>
@@ -11972,8 +12369,9 @@
       <c r="E114" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>385</v>
       </c>
@@ -11989,8 +12387,9 @@
       <c r="E115" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>396</v>
       </c>
@@ -12006,8 +12405,9 @@
       <c r="E116" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>400</v>
       </c>
@@ -12023,8 +12423,9 @@
       <c r="E117" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>404</v>
       </c>
@@ -12038,8 +12439,9 @@
       <c r="E118" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>407</v>
       </c>
@@ -12053,23 +12455,30 @@
       <c r="E119" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="6">
         <v>11</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1" t="s">
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="5" t="s">
+        <v>3257</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>413</v>
       </c>
@@ -12083,38 +12492,48 @@
       <c r="E121" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="6">
         <v>11</v>
       </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1" t="s">
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="F122" s="5" t="s">
+        <v>3259</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="6">
         <v>11</v>
       </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1" t="s">
+      <c r="D123" s="5"/>
+      <c r="E123" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F123" s="5" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>422</v>
       </c>
@@ -12130,8 +12549,9 @@
       <c r="E124" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>426</v>
       </c>
@@ -12145,8 +12565,9 @@
       <c r="E125" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>429</v>
       </c>
@@ -12160,8 +12581,9 @@
       <c r="E126" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>432</v>
       </c>
@@ -12175,8 +12597,9 @@
       <c r="E127" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>435</v>
       </c>
@@ -12190,25 +12613,32 @@
       <c r="E128" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="6">
         <v>11</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F129" s="5" t="s">
+        <v>3263</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>442</v>
       </c>
@@ -12224,8 +12654,9 @@
       <c r="E130" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>446</v>
       </c>
@@ -12239,8 +12670,9 @@
       <c r="E131" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>449</v>
       </c>
@@ -12256,8 +12688,9 @@
       <c r="E132" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>453</v>
       </c>
@@ -12273,8 +12706,9 @@
       <c r="E133" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>457</v>
       </c>
@@ -12290,8 +12724,9 @@
       <c r="E134" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>461</v>
       </c>
@@ -12307,8 +12742,9 @@
       <c r="E135" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>465</v>
       </c>
@@ -12322,8 +12758,9 @@
       <c r="E136" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>468</v>
       </c>
@@ -12337,8 +12774,9 @@
       <c r="E137" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>471</v>
       </c>
@@ -12354,8 +12792,9 @@
       <c r="E138" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>475</v>
       </c>
@@ -12371,8 +12810,9 @@
       <c r="E139" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>479</v>
       </c>
@@ -12388,8 +12828,9 @@
       <c r="E140" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>483</v>
       </c>
@@ -12405,8 +12846,9 @@
       <c r="E141" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>487</v>
       </c>
@@ -12422,25 +12864,27 @@
       <c r="E142" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="6">
         <v>11</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="5" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>495</v>
       </c>
@@ -12456,8 +12900,9 @@
       <c r="E144" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>499</v>
       </c>
@@ -12473,8 +12918,9 @@
       <c r="E145" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>503</v>
       </c>
@@ -12490,8 +12936,9 @@
       <c r="E146" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>507</v>
       </c>
@@ -12505,8 +12952,9 @@
       <c r="E147" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>510</v>
       </c>
@@ -12522,8 +12970,9 @@
       <c r="E148" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>514</v>
       </c>
@@ -12539,8 +12988,9 @@
       <c r="E149" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>518</v>
       </c>
@@ -12556,25 +13006,27 @@
       <c r="E150" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="6">
         <v>11</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="5" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>526</v>
       </c>
@@ -12590,8 +13042,9 @@
       <c r="E152" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>530</v>
       </c>
@@ -12607,8 +13060,9 @@
       <c r="E153" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>72</v>
       </c>
@@ -12624,8 +13078,9 @@
       <c r="E154" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>76</v>
       </c>
@@ -12641,8 +13096,9 @@
       <c r="E155" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>64</v>
       </c>
@@ -12658,8 +13114,9 @@
       <c r="E156" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>100</v>
       </c>
@@ -12675,8 +13132,9 @@
       <c r="E157" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>538</v>
       </c>
@@ -12692,8 +13150,9 @@
       <c r="E158" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>542</v>
       </c>
@@ -12709,8 +13168,9 @@
       <c r="E159" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>546</v>
       </c>
@@ -12724,8 +13184,9 @@
       <c r="E160" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>549</v>
       </c>
@@ -12739,8 +13200,9 @@
       <c r="E161" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>552</v>
       </c>
@@ -12754,8 +13216,9 @@
       <c r="E162" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>555</v>
       </c>
@@ -12769,8 +13232,9 @@
       <c r="E163" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>558</v>
       </c>
@@ -12784,8 +13248,9 @@
       <c r="E164" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>84</v>
       </c>
@@ -12801,8 +13266,9 @@
       <c r="E165" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>92</v>
       </c>
@@ -12818,8 +13284,9 @@
       <c r="E166" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>563</v>
       </c>
@@ -12835,8 +13302,9 @@
       <c r="E167" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>567</v>
       </c>
@@ -12852,8 +13320,9 @@
       <c r="E168" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>571</v>
       </c>
@@ -12867,8 +13336,9 @@
       <c r="E169" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -12884,8 +13354,9 @@
       <c r="E170" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>575</v>
       </c>
@@ -12901,25 +13372,32 @@
       <c r="E171" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="6">
         <v>11</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="5" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F172" s="5" t="s">
+        <v>3264</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>583</v>
       </c>
@@ -12935,8 +13413,9 @@
       <c r="E173" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>587</v>
       </c>
@@ -12950,8 +13429,9 @@
       <c r="E174" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>590</v>
       </c>
@@ -12965,8 +13445,9 @@
       <c r="E175" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>593</v>
       </c>
@@ -12980,8 +13461,9 @@
       <c r="E176" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>596</v>
       </c>
@@ -12997,8 +13479,9 @@
       <c r="E177" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>68</v>
       </c>
@@ -13014,8 +13497,9 @@
       <c r="E178" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>80</v>
       </c>
@@ -13031,8 +13515,9 @@
       <c r="E179" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
@@ -13046,8 +13531,9 @@
       <c r="E180" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
@@ -13061,8 +13547,9 @@
       <c r="E181" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -13078,8 +13565,9 @@
       <c r="E182" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>60</v>
       </c>
@@ -13095,8 +13583,9 @@
       <c r="E183" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -13112,8 +13601,9 @@
       <c r="E184" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>53</v>
       </c>
@@ -13127,8 +13617,9 @@
       <c r="E185" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>608</v>
       </c>
@@ -13142,25 +13633,30 @@
       <c r="E186" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="6">
         <v>11</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F187" s="5"/>
+      <c r="G187" s="7" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>615</v>
       </c>
@@ -13174,8 +13670,9 @@
       <c r="E188" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>618</v>
       </c>
@@ -13189,8 +13686,9 @@
       <c r="E189" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>621</v>
       </c>
@@ -13204,8 +13702,9 @@
       <c r="E190" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>624</v>
       </c>
@@ -13219,8 +13718,9 @@
       <c r="E191" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>627</v>
       </c>
@@ -13236,8 +13736,9 @@
       <c r="E192" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>631</v>
       </c>
@@ -13251,8 +13752,9 @@
       <c r="E193" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>634</v>
       </c>
@@ -13268,8 +13770,9 @@
       <c r="E194" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>638</v>
       </c>
@@ -13283,8 +13786,9 @@
       <c r="E195" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>641</v>
       </c>
@@ -13298,8 +13802,9 @@
       <c r="E196" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>644</v>
       </c>
@@ -13313,8 +13818,9 @@
       <c r="E197" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>647</v>
       </c>
@@ -13330,8 +13836,9 @@
       <c r="E198" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>651</v>
       </c>
@@ -13345,8 +13852,9 @@
       <c r="E199" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>654</v>
       </c>
@@ -13362,8 +13870,9 @@
       <c r="E200" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>658</v>
       </c>
@@ -13377,8 +13886,9 @@
       <c r="E201" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>661</v>
       </c>
@@ -13394,8 +13904,9 @@
       <c r="E202" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>664</v>
       </c>
@@ -13411,8 +13922,9 @@
       <c r="E203" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>668</v>
       </c>
@@ -13426,8 +13938,9 @@
       <c r="E204" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>671</v>
       </c>
@@ -13441,25 +13954,30 @@
       <c r="E205" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="6">
         <v>11</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" s="5" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F206" s="5"/>
+      <c r="G206" s="7" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>678</v>
       </c>
@@ -13475,8 +13993,9 @@
       <c r="E207" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>682</v>
       </c>
@@ -13490,8 +14009,9 @@
       <c r="E208" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>685</v>
       </c>
@@ -13505,8 +14025,9 @@
       <c r="E209" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>688</v>
       </c>
@@ -13522,25 +14043,30 @@
       <c r="E210" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="6">
         <v>11</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" s="5" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F211" s="5"/>
+      <c r="G211" s="7" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>696</v>
       </c>
@@ -13556,8 +14082,9 @@
       <c r="E212" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>700</v>
       </c>
@@ -13571,8 +14098,9 @@
       <c r="E213" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>703</v>
       </c>
@@ -13586,8 +14114,9 @@
       <c r="E214" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>705</v>
       </c>
@@ -13601,8 +14130,9 @@
       <c r="E215" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>707</v>
       </c>
@@ -13616,8 +14146,9 @@
       <c r="E216" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>710</v>
       </c>
@@ -13633,8 +14164,9 @@
       <c r="E217" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>714</v>
       </c>
@@ -13648,8 +14180,9 @@
       <c r="E218" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>717</v>
       </c>
@@ -13663,8 +14196,9 @@
       <c r="E219" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>720</v>
       </c>
@@ -13678,8 +14212,9 @@
       <c r="E220" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>723</v>
       </c>
@@ -13693,42 +14228,51 @@
       <c r="E221" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="6">
         <v>11</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" s="5" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="F222" s="5"/>
+      <c r="G222" s="7" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="6">
         <v>11</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" s="5" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F223" s="5"/>
+      <c r="G223" s="7" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>734</v>
       </c>
@@ -13742,8 +14286,9 @@
       <c r="E224" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>737</v>
       </c>
@@ -13757,8 +14302,9 @@
       <c r="E225" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>740</v>
       </c>
@@ -13772,8 +14318,9 @@
       <c r="E226" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>743</v>
       </c>
@@ -13787,8 +14334,9 @@
       <c r="E227" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>746</v>
       </c>
@@ -13802,8 +14350,9 @@
       <c r="E228" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>749</v>
       </c>
@@ -13819,8 +14368,9 @@
       <c r="E229" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>753</v>
       </c>
@@ -13834,25 +14384,30 @@
       <c r="E230" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="6">
         <v>11</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" s="5" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="5"/>
+      <c r="G231" s="7" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>760</v>
       </c>
@@ -13868,8 +14423,9 @@
       <c r="E232" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>764</v>
       </c>
@@ -13883,8 +14439,9 @@
       <c r="E233" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>767</v>
       </c>
@@ -13898,8 +14455,9 @@
       <c r="E234" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>770</v>
       </c>
@@ -13913,25 +14471,30 @@
       <c r="E235" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="6">
         <v>16</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E236" s="5" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F236" s="5"/>
+      <c r="G236" s="8" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>777</v>
       </c>
@@ -13947,8 +14510,9 @@
       <c r="E237" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>781</v>
       </c>
@@ -13962,8 +14526,9 @@
       <c r="E238" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>784</v>
       </c>
@@ -13979,8 +14544,9 @@
       <c r="E239" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>788</v>
       </c>
@@ -13996,8 +14562,9 @@
       <c r="E240" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>792</v>
       </c>
@@ -14013,8 +14580,9 @@
       <c r="E241" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>796</v>
       </c>
@@ -14030,8 +14598,9 @@
       <c r="E242" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>800</v>
       </c>
@@ -14047,8 +14616,9 @@
       <c r="E243" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>804</v>
       </c>
@@ -14064,8 +14634,9 @@
       <c r="E244" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>808</v>
       </c>
@@ -14079,8 +14650,9 @@
       <c r="E245" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>811</v>
       </c>
@@ -14094,8 +14666,9 @@
       <c r="E246" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>814</v>
       </c>
@@ -14111,25 +14684,30 @@
       <c r="E247" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="6">
         <v>11</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E248" s="5" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F248" s="5"/>
+      <c r="G248" s="7" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>822</v>
       </c>
@@ -14145,8 +14723,9 @@
       <c r="E249" s="1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>826</v>
       </c>
@@ -14162,8 +14741,9 @@
       <c r="E250" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>830</v>
       </c>
@@ -14177,8 +14757,9 @@
       <c r="E251" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>833</v>
       </c>
@@ -14194,8 +14775,9 @@
       <c r="E252" s="1" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>837</v>
       </c>
@@ -14209,8 +14791,9 @@
       <c r="E253" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>840</v>
       </c>
@@ -14224,8 +14807,9 @@
       <c r="E254" s="1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>843</v>
       </c>
@@ -14239,8 +14823,9 @@
       <c r="E255" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>846</v>
       </c>
@@ -14256,8 +14841,9 @@
       <c r="E256" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>850</v>
       </c>
@@ -14273,25 +14859,30 @@
       <c r="E257" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258" s="6">
         <v>11</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E258" s="5" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F258" s="5"/>
+      <c r="G258" s="7" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>857</v>
       </c>
@@ -14307,8 +14898,9 @@
       <c r="E259" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>861</v>
       </c>
@@ -14324,8 +14916,9 @@
       <c r="E260" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>865</v>
       </c>
@@ -14341,8 +14934,9 @@
       <c r="E261" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>869</v>
       </c>
@@ -14358,8 +14952,9 @@
       <c r="E262" s="1" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>873</v>
       </c>
@@ -14375,8 +14970,9 @@
       <c r="E263" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>877</v>
       </c>
@@ -14392,8 +14988,9 @@
       <c r="E264" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>881</v>
       </c>
@@ -14409,8 +15006,9 @@
       <c r="E265" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>885</v>
       </c>
@@ -14426,8 +15024,9 @@
       <c r="E266" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>889</v>
       </c>
@@ -14441,8 +15040,9 @@
       <c r="E267" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>892</v>
       </c>
@@ -14458,8 +15058,9 @@
       <c r="E268" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>896</v>
       </c>
@@ -14475,8 +15076,9 @@
       <c r="E269" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>900</v>
       </c>
@@ -14490,8 +15092,9 @@
       <c r="E270" s="1" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>903</v>
       </c>
@@ -14507,8 +15110,9 @@
       <c r="E271" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>906</v>
       </c>
@@ -14522,8 +15126,9 @@
       <c r="E272" s="1" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>909</v>
       </c>
@@ -14539,8 +15144,9 @@
       <c r="E273" s="1" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>913</v>
       </c>
@@ -14554,8 +15160,9 @@
       <c r="E274" s="1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>916</v>
       </c>
@@ -14571,8 +15178,9 @@
       <c r="E275" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>919</v>
       </c>
@@ -14588,8 +15196,9 @@
       <c r="E276" s="1" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>923</v>
       </c>
@@ -14605,8 +15214,9 @@
       <c r="E277" s="1" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>927</v>
       </c>
@@ -14622,8 +15232,9 @@
       <c r="E278" s="1" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>931</v>
       </c>
@@ -14639,8 +15250,9 @@
       <c r="E279" s="1" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>935</v>
       </c>
@@ -14656,8 +15268,9 @@
       <c r="E280" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>939</v>
       </c>
@@ -14671,8 +15284,9 @@
       <c r="E281" s="1" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>942</v>
       </c>
@@ -14688,8 +15302,9 @@
       <c r="E282" s="1" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>946</v>
       </c>
@@ -14705,8 +15320,9 @@
       <c r="E283" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>950</v>
       </c>
@@ -14720,8 +15336,9 @@
       <c r="E284" s="1" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>953</v>
       </c>
@@ -14737,8 +15354,9 @@
       <c r="E285" s="1" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>957</v>
       </c>
@@ -14754,8 +15372,9 @@
       <c r="E286" s="1" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>961</v>
       </c>
@@ -14771,8 +15390,9 @@
       <c r="E287" s="1" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>965</v>
       </c>
@@ -14788,8 +15408,9 @@
       <c r="E288" s="1" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>969</v>
       </c>
@@ -14805,8 +15426,9 @@
       <c r="E289" s="1" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>973</v>
       </c>
@@ -14822,8 +15444,9 @@
       <c r="E290" s="1" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>977</v>
       </c>
@@ -14839,8 +15462,9 @@
       <c r="E291" s="1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>981</v>
       </c>
@@ -14856,8 +15480,9 @@
       <c r="E292" s="1" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>985</v>
       </c>
@@ -14871,8 +15496,9 @@
       <c r="E293" s="1" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>988</v>
       </c>
@@ -14886,8 +15512,9 @@
       <c r="E294" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>991</v>
       </c>
@@ -14901,8 +15528,9 @@
       <c r="E295" s="1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>994</v>
       </c>
@@ -14918,8 +15546,9 @@
       <c r="E296" s="1" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>998</v>
       </c>
@@ -14935,8 +15564,9 @@
       <c r="E297" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1002</v>
       </c>
@@ -14950,8 +15580,9 @@
       <c r="E298" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1005</v>
       </c>
@@ -14967,8 +15598,9 @@
       <c r="E299" s="1" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>1009</v>
       </c>
@@ -14982,8 +15614,9 @@
       <c r="E300" s="1" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>1012</v>
       </c>
@@ -14997,8 +15630,9 @@
       <c r="E301" s="1" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>1015</v>
       </c>
@@ -15014,8 +15648,9 @@
       <c r="E302" s="1" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>1019</v>
       </c>
@@ -15031,8 +15666,9 @@
       <c r="E303" s="1" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>1023</v>
       </c>
@@ -15048,8 +15684,9 @@
       <c r="E304" s="1" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1027</v>
       </c>
@@ -15063,8 +15700,9 @@
       <c r="E305" s="1" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>1030</v>
       </c>
@@ -15080,8 +15718,9 @@
       <c r="E306" s="1" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1034</v>
       </c>
@@ -15097,8 +15736,9 @@
       <c r="E307" s="1" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>1038</v>
       </c>
@@ -15114,8 +15754,9 @@
       <c r="E308" s="1" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1042</v>
       </c>
@@ -15129,8 +15770,9 @@
       <c r="E309" s="1" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1045</v>
       </c>
@@ -15146,8 +15788,9 @@
       <c r="E310" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>1049</v>
       </c>
@@ -15163,25 +15806,30 @@
       <c r="E311" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B312" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312" s="6">
         <v>11</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="D312" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="E312" s="1" t="s">
+      <c r="E312" s="5" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F312" s="5"/>
+      <c r="G312" s="8" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>1057</v>
       </c>
@@ -15197,8 +15845,9 @@
       <c r="E313" s="1" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1061</v>
       </c>
@@ -15214,8 +15863,9 @@
       <c r="E314" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>1065</v>
       </c>
@@ -15231,8 +15881,9 @@
       <c r="E315" s="1" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>1069</v>
       </c>
@@ -15246,8 +15897,9 @@
       <c r="E316" s="1" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>1072</v>
       </c>
@@ -15261,8 +15913,9 @@
       <c r="E317" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15276,8 +15929,9 @@
       <c r="E318" s="1" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>1077</v>
       </c>
@@ -15291,8 +15945,9 @@
       <c r="E319" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1080</v>
       </c>
@@ -15306,8 +15961,9 @@
       <c r="E320" s="1" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>1083</v>
       </c>
@@ -15321,8 +15977,9 @@
       <c r="E321" s="1" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>1086</v>
       </c>
@@ -15336,8 +15993,9 @@
       <c r="E322" s="1" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F322" s="1"/>
+    </row>
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>1089</v>
       </c>
@@ -15351,8 +16009,9 @@
       <c r="E323" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F323" s="1"/>
+    </row>
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>1092</v>
       </c>
@@ -15366,25 +16025,30 @@
       <c r="E324" s="1" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325" spans="1:7" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325" s="6">
         <v>11</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="D325" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="E325" s="1" t="s">
+      <c r="E325" s="5" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F325" s="5"/>
+      <c r="G325" s="7" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>1099</v>
       </c>
@@ -15398,8 +16062,9 @@
       <c r="E326" s="1" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15413,8 +16078,9 @@
       <c r="E327" s="1" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>1105</v>
       </c>
@@ -15428,8 +16094,9 @@
       <c r="E328" s="1" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15443,8 +16110,9 @@
       <c r="E329" s="1" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>1111</v>
       </c>
@@ -15458,8 +16126,9 @@
       <c r="E330" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>1114</v>
       </c>
@@ -15475,8 +16144,9 @@
       <c r="E331" s="1" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="1"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>1118</v>
       </c>
@@ -15492,8 +16162,9 @@
       <c r="E332" s="1" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="1"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>1122</v>
       </c>
@@ -15507,8 +16178,9 @@
       <c r="E333" s="1" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>1125</v>
       </c>
@@ -15524,8 +16196,9 @@
       <c r="E334" s="1" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>1129</v>
       </c>
@@ -15541,8 +16214,9 @@
       <c r="E335" s="1" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>1133</v>
       </c>
@@ -15556,8 +16230,9 @@
       <c r="E336" s="1" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>1136</v>
       </c>
@@ -15571,8 +16246,9 @@
       <c r="E337" s="1" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>1139</v>
       </c>
@@ -15586,8 +16262,9 @@
       <c r="E338" s="1" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>1142</v>
       </c>
@@ -15601,8 +16278,9 @@
       <c r="E339" s="1" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>1145</v>
       </c>
@@ -15616,25 +16294,30 @@
       <c r="E340" s="1" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341" s="6">
         <v>11</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="D341" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="E341" s="1" t="s">
+      <c r="E341" s="5" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F341" s="5"/>
+      <c r="G341" s="8" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>1152</v>
       </c>
@@ -15650,8 +16333,9 @@
       <c r="E342" s="1" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>1155</v>
       </c>
@@ -15665,8 +16349,9 @@
       <c r="E343" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>1158</v>
       </c>
@@ -15682,8 +16367,9 @@
       <c r="E344" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>1162</v>
       </c>
@@ -15697,8 +16383,9 @@
       <c r="E345" s="1" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>1165</v>
       </c>
@@ -15712,8 +16399,9 @@
       <c r="E346" s="1" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="1"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>1168</v>
       </c>
@@ -15730,7 +16418,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>1172</v>
       </c>
@@ -15745,7 +16433,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>1175</v>
       </c>
@@ -15762,7 +16450,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>1179</v>
       </c>
@@ -15777,7 +16465,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>1182</v>
       </c>
@@ -15792,7 +16480,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>1185</v>
       </c>
@@ -16051,7 +16739,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>1237</v>
       </c>
@@ -16066,7 +16754,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>1240</v>
       </c>
@@ -16083,7 +16771,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>1244</v>
       </c>
@@ -16098,7 +16786,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>608</v>
       </c>
@@ -16113,7 +16801,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>1248</v>
       </c>
@@ -16130,24 +16818,27 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+    <row r="374" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="B374" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374" s="6">
         <v>11</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="D374" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="E374" s="1" t="s">
+      <c r="E374" s="5" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G374" s="7" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>1256</v>
       </c>
@@ -16164,7 +16855,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>1260</v>
       </c>
@@ -16179,7 +16870,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>1263</v>
       </c>
@@ -16196,7 +16887,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>1267</v>
       </c>
@@ -16211,7 +16902,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>1270</v>
       </c>
@@ -16228,7 +16919,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>1274</v>
       </c>
@@ -16245,7 +16936,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>168</v>
       </c>
@@ -16260,7 +16951,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>1279</v>
       </c>
@@ -16277,7 +16968,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>1283</v>
       </c>
@@ -16294,7 +16985,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>1287</v>
       </c>
@@ -16600,24 +17291,24 @@
         <v>486</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+    <row r="402" spans="1:5" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="B402" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402" s="6">
         <v>11</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="D402" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E402" s="1" t="s">
+      <c r="E402" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>479</v>
       </c>
@@ -16851,24 +17542,27 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
+    <row r="417" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A417" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="B417" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417" s="6">
         <v>11</v>
       </c>
-      <c r="D417" s="1" t="s">
+      <c r="D417" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="E417" s="1" t="s">
+      <c r="E417" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G417" s="7" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>1279</v>
       </c>
@@ -16885,7 +17579,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>471</v>
       </c>
@@ -16902,7 +17596,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>1263</v>
       </c>
@@ -16919,7 +17613,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>1267</v>
       </c>
@@ -16934,7 +17628,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>1270</v>
       </c>
@@ -16951,7 +17645,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>1260</v>
       </c>
@@ -16966,7 +17660,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>1274</v>
       </c>
@@ -16983,7 +17677,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>259</v>
       </c>
@@ -17000,7 +17694,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>658</v>
       </c>
@@ -17015,7 +17709,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>297</v>
       </c>
@@ -17030,7 +17724,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>281</v>
       </c>
@@ -17045,7 +17739,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>199</v>
       </c>
@@ -17062,7 +17756,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>215</v>
       </c>
@@ -17079,7 +17773,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>271</v>
       </c>
@@ -17094,7 +17788,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>555</v>
       </c>
@@ -17158,7 +17852,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>615</v>
       </c>
@@ -17205,7 +17899,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>647</v>
       </c>
@@ -17647,7 +18341,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>726</v>
       </c>
@@ -17696,7 +18390,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>730</v>
       </c>
@@ -18123,7 +18817,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>1502</v>
       </c>
@@ -19568,7 +20262,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>1049</v>
       </c>
@@ -19901,7 +20595,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>1172</v>
       </c>
@@ -19916,7 +20610,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>1763</v>
       </c>
@@ -20473,7 +21167,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>1864</v>
       </c>
@@ -21031,7 +21725,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>446</v>
       </c>
@@ -21374,7 +22068,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>267</v>
       </c>
@@ -21483,7 +22177,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>668</v>
       </c>
@@ -22649,7 +23343,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>2144</v>
       </c>
@@ -22870,7 +23564,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>957</v>
       </c>
@@ -23206,7 +23900,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>2236</v>
       </c>
@@ -23238,7 +23932,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>2243</v>
       </c>
@@ -24264,7 +24958,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>2386</v>
       </c>
@@ -24279,7 +24973,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>1763</v>
       </c>
@@ -24418,7 +25112,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>2144</v>
       </c>
@@ -25600,7 +26294,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
         <v>2549</v>
       </c>
@@ -25952,7 +26646,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
         <v>2256</v>
       </c>
@@ -26063,7 +26757,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
         <v>2236</v>
       </c>
@@ -26127,7 +26821,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
         <v>2243</v>
       </c>
@@ -26572,7 +27266,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="1022" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
         <v>2652</v>
       </c>
@@ -26587,7 +27281,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="1023" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
         <v>2652</v>
       </c>
@@ -26867,7 +27561,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1041" s="1" t="s">
         <v>2549</v>
       </c>
@@ -28381,7 +29075,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="1133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="1" t="s">
         <v>2386</v>
       </c>
@@ -28396,7 +29090,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="1134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="1" t="s">
         <v>1182</v>
       </c>
@@ -28411,7 +29105,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1135" s="1" t="s">
         <v>1179</v>
       </c>
@@ -28811,7 +29505,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1161" s="1" t="s">
         <v>2937</v>
       </c>
@@ -29306,7 +30000,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1192" s="1" t="s">
         <v>3021</v>
       </c>
@@ -29323,7 +30017,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="1193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1193" s="1" t="s">
         <v>3025</v>
       </c>
@@ -29449,7 +30143,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="1201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1201" s="1" t="s">
         <v>3025</v>
       </c>
@@ -29517,7 +30211,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1205" s="1" t="s">
         <v>226</v>
       </c>
@@ -29534,7 +30228,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="1206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1206" s="1" t="s">
         <v>3054</v>
       </c>
@@ -29602,7 +30296,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1210" s="1" t="s">
         <v>3021</v>
       </c>
@@ -29636,7 +30330,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="1212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1212" s="1" t="s">
         <v>3054</v>
       </c>
@@ -29755,7 +30449,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1219" s="1" t="s">
         <v>2937</v>
       </c>
@@ -30040,7 +30734,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="1236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1236" s="1" t="s">
         <v>1864</v>
       </c>
@@ -30270,7 +30964,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="1250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1250" s="1" t="s">
         <v>3126</v>
       </c>
@@ -30287,7 +30981,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="1251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1251" s="1" t="s">
         <v>3126</v>
       </c>
@@ -30870,7 +31564,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="1288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1288" s="1" t="s">
         <v>3211</v>
       </c>
@@ -31041,7 +31735,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1299" s="1" t="s">
         <v>2036</v>
       </c>
@@ -31075,8 +31769,2166 @@
         <v>2043</v>
       </c>
     </row>
+    <row r="1046669" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046669" s="3"/>
+    </row>
+    <row r="1046670" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046670" s="1"/>
+    </row>
+    <row r="1046671" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046671" s="1"/>
+    </row>
+    <row r="1046672" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046672" s="1"/>
+    </row>
+    <row r="1046673" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046673" s="1"/>
+    </row>
+    <row r="1046674" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046674" s="1"/>
+    </row>
+    <row r="1046675" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046675" s="1"/>
+    </row>
+    <row r="1046676" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046676" s="1"/>
+    </row>
+    <row r="1046677" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046677" s="1"/>
+    </row>
+    <row r="1046678" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046678" s="1"/>
+    </row>
+    <row r="1046679" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046679" s="1"/>
+    </row>
+    <row r="1046680" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046680" s="1"/>
+    </row>
+    <row r="1046681" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046681" s="1"/>
+    </row>
+    <row r="1046682" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046682" s="1"/>
+    </row>
+    <row r="1046683" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046683" s="1"/>
+    </row>
+    <row r="1046684" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046684" s="1"/>
+    </row>
+    <row r="1046685" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046685" s="1"/>
+    </row>
+    <row r="1046686" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046686" s="1"/>
+    </row>
+    <row r="1046687" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046687" s="1"/>
+    </row>
+    <row r="1046688" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046688" s="1"/>
+    </row>
+    <row r="1046689" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046689" s="1"/>
+    </row>
+    <row r="1046690" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046690" s="1"/>
+    </row>
+    <row r="1046691" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046691" s="1"/>
+    </row>
+    <row r="1046692" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046692" s="1"/>
+    </row>
+    <row r="1046693" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046693" s="1"/>
+    </row>
+    <row r="1046694" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046694" s="1"/>
+    </row>
+    <row r="1046695" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046695" s="1"/>
+    </row>
+    <row r="1046696" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046696" s="1"/>
+    </row>
+    <row r="1046697" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046697" s="1"/>
+    </row>
+    <row r="1046698" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046698" s="1"/>
+    </row>
+    <row r="1046699" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046699" s="1"/>
+    </row>
+    <row r="1046700" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046700" s="1"/>
+    </row>
+    <row r="1046701" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046701" s="1"/>
+    </row>
+    <row r="1046702" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046702" s="1"/>
+    </row>
+    <row r="1046703" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046703" s="1"/>
+    </row>
+    <row r="1046704" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046704" s="1"/>
+    </row>
+    <row r="1046705" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046705" s="1"/>
+    </row>
+    <row r="1046706" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046706" s="1"/>
+    </row>
+    <row r="1046707" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046707" s="1"/>
+    </row>
+    <row r="1046708" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046708" s="1"/>
+    </row>
+    <row r="1046709" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046709" s="1"/>
+    </row>
+    <row r="1046710" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046710" s="1"/>
+    </row>
+    <row r="1046711" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046711" s="1"/>
+    </row>
+    <row r="1046712" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046712" s="1"/>
+    </row>
+    <row r="1046713" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046713" s="1"/>
+    </row>
+    <row r="1046714" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046714" s="1"/>
+    </row>
+    <row r="1046715" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046715" s="1"/>
+    </row>
+    <row r="1046716" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046716" s="1"/>
+    </row>
+    <row r="1046717" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046717" s="1"/>
+    </row>
+    <row r="1046718" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046718" s="1"/>
+    </row>
+    <row r="1046719" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046719" s="1"/>
+    </row>
+    <row r="1046720" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046720" s="1"/>
+    </row>
+    <row r="1046721" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046721" s="1"/>
+    </row>
+    <row r="1046722" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046722" s="1"/>
+    </row>
+    <row r="1046723" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046723" s="1"/>
+    </row>
+    <row r="1046724" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046724" s="1"/>
+    </row>
+    <row r="1046725" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046725" s="1"/>
+    </row>
+    <row r="1046726" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046726" s="1"/>
+    </row>
+    <row r="1046727" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046727" s="1"/>
+    </row>
+    <row r="1046728" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046728" s="1"/>
+    </row>
+    <row r="1046729" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046729" s="1"/>
+    </row>
+    <row r="1046730" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046730" s="1"/>
+    </row>
+    <row r="1046731" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046731" s="1"/>
+    </row>
+    <row r="1046732" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046732" s="1"/>
+    </row>
+    <row r="1046733" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046733" s="1"/>
+    </row>
+    <row r="1046734" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046734" s="1"/>
+    </row>
+    <row r="1046735" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046735" s="1"/>
+    </row>
+    <row r="1046736" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046736" s="1"/>
+    </row>
+    <row r="1046737" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046737" s="1"/>
+    </row>
+    <row r="1046738" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046738" s="1"/>
+    </row>
+    <row r="1046739" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046739" s="1"/>
+    </row>
+    <row r="1046740" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046740" s="1"/>
+    </row>
+    <row r="1046741" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046741" s="1"/>
+    </row>
+    <row r="1046742" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046742" s="1"/>
+    </row>
+    <row r="1046743" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046743" s="1"/>
+    </row>
+    <row r="1046744" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046744" s="1"/>
+    </row>
+    <row r="1046745" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046745" s="1"/>
+    </row>
+    <row r="1046746" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046746" s="1"/>
+    </row>
+    <row r="1046747" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046747" s="1"/>
+    </row>
+    <row r="1046748" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046748" s="1"/>
+    </row>
+    <row r="1046749" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046749" s="1"/>
+    </row>
+    <row r="1046750" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046750" s="1"/>
+    </row>
+    <row r="1046751" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046751" s="1"/>
+    </row>
+    <row r="1046752" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046752" s="1"/>
+    </row>
+    <row r="1046753" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046753" s="1"/>
+    </row>
+    <row r="1046754" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046754" s="1"/>
+    </row>
+    <row r="1046755" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046755" s="1"/>
+    </row>
+    <row r="1046756" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046756" s="1"/>
+    </row>
+    <row r="1046757" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046757" s="1"/>
+    </row>
+    <row r="1046758" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046758" s="1"/>
+    </row>
+    <row r="1046759" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046759" s="1"/>
+    </row>
+    <row r="1046760" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046760" s="1"/>
+    </row>
+    <row r="1046761" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046761" s="1"/>
+    </row>
+    <row r="1046762" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046762" s="1"/>
+    </row>
+    <row r="1046763" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046763" s="1"/>
+    </row>
+    <row r="1046764" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046764" s="1"/>
+    </row>
+    <row r="1046765" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046765" s="1"/>
+    </row>
+    <row r="1046766" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046766" s="1"/>
+    </row>
+    <row r="1046767" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046767" s="1"/>
+    </row>
+    <row r="1046768" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046768" s="1"/>
+    </row>
+    <row r="1046769" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046769" s="1"/>
+    </row>
+    <row r="1046770" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046770" s="1"/>
+    </row>
+    <row r="1046771" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046771" s="1"/>
+    </row>
+    <row r="1046772" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046772" s="1"/>
+    </row>
+    <row r="1046773" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046773" s="1"/>
+    </row>
+    <row r="1046774" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046774" s="1"/>
+    </row>
+    <row r="1046775" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046775" s="1"/>
+    </row>
+    <row r="1046776" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046776" s="1"/>
+    </row>
+    <row r="1046777" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046777" s="1"/>
+    </row>
+    <row r="1046778" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046778" s="1"/>
+    </row>
+    <row r="1046779" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046779" s="1"/>
+    </row>
+    <row r="1046780" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046780" s="1"/>
+    </row>
+    <row r="1046781" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046781" s="1"/>
+    </row>
+    <row r="1046782" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046782" s="1"/>
+    </row>
+    <row r="1046783" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046783" s="1"/>
+    </row>
+    <row r="1046784" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046784" s="1"/>
+    </row>
+    <row r="1046785" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046785" s="1"/>
+    </row>
+    <row r="1046786" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046786" s="1"/>
+    </row>
+    <row r="1046787" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046787" s="1"/>
+    </row>
+    <row r="1046788" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046788" s="1"/>
+    </row>
+    <row r="1046789" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046789" s="1"/>
+    </row>
+    <row r="1046790" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046790" s="1"/>
+    </row>
+    <row r="1046791" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046791" s="1"/>
+    </row>
+    <row r="1046792" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046792" s="1"/>
+    </row>
+    <row r="1046793" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046793" s="1"/>
+    </row>
+    <row r="1046794" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046794" s="1"/>
+    </row>
+    <row r="1046795" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046795" s="1"/>
+    </row>
+    <row r="1046796" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046796" s="1"/>
+    </row>
+    <row r="1046797" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046797" s="1"/>
+    </row>
+    <row r="1046798" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046798" s="1"/>
+    </row>
+    <row r="1046799" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046799" s="1"/>
+    </row>
+    <row r="1046800" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046800" s="1"/>
+    </row>
+    <row r="1046801" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046801" s="1"/>
+    </row>
+    <row r="1046802" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046802" s="1"/>
+    </row>
+    <row r="1046803" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046803" s="1"/>
+    </row>
+    <row r="1046804" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046804" s="1"/>
+    </row>
+    <row r="1046805" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046805" s="1"/>
+    </row>
+    <row r="1046806" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046806" s="1"/>
+    </row>
+    <row r="1046807" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046807" s="1"/>
+    </row>
+    <row r="1046808" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046808" s="1"/>
+    </row>
+    <row r="1046809" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046809" s="1"/>
+    </row>
+    <row r="1046810" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046810" s="1"/>
+    </row>
+    <row r="1046811" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046811" s="1"/>
+    </row>
+    <row r="1046812" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046812" s="1"/>
+    </row>
+    <row r="1046813" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046813" s="1"/>
+    </row>
+    <row r="1046814" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046814" s="1"/>
+    </row>
+    <row r="1046815" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046815" s="1"/>
+    </row>
+    <row r="1046816" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046816" s="1"/>
+    </row>
+    <row r="1046817" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046817" s="1"/>
+    </row>
+    <row r="1046818" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046818" s="1"/>
+    </row>
+    <row r="1046819" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046819" s="1"/>
+    </row>
+    <row r="1046820" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046820" s="1"/>
+    </row>
+    <row r="1046821" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046821" s="1"/>
+    </row>
+    <row r="1046822" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046822" s="1"/>
+    </row>
+    <row r="1046823" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046823" s="1"/>
+    </row>
+    <row r="1046824" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046824" s="1"/>
+    </row>
+    <row r="1046825" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046825" s="1"/>
+    </row>
+    <row r="1046826" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046826" s="1"/>
+    </row>
+    <row r="1046827" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046827" s="1"/>
+    </row>
+    <row r="1046828" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046828" s="1"/>
+    </row>
+    <row r="1046829" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046829" s="1"/>
+    </row>
+    <row r="1046830" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046830" s="1"/>
+    </row>
+    <row r="1046831" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046831" s="1"/>
+    </row>
+    <row r="1046832" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046832" s="1"/>
+    </row>
+    <row r="1046833" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046833" s="1"/>
+    </row>
+    <row r="1046834" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046834" s="1"/>
+    </row>
+    <row r="1046835" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046835" s="1"/>
+    </row>
+    <row r="1046836" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046836" s="1"/>
+    </row>
+    <row r="1046837" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046837" s="1"/>
+    </row>
+    <row r="1046838" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046838" s="1"/>
+    </row>
+    <row r="1046839" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046839" s="1"/>
+    </row>
+    <row r="1046840" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046840" s="1"/>
+    </row>
+    <row r="1046841" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046841" s="1"/>
+    </row>
+    <row r="1046842" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046842" s="1"/>
+    </row>
+    <row r="1046843" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046843" s="1"/>
+    </row>
+    <row r="1046844" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046844" s="1"/>
+    </row>
+    <row r="1046845" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046845" s="1"/>
+    </row>
+    <row r="1046846" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046846" s="1"/>
+    </row>
+    <row r="1046847" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046847" s="1"/>
+    </row>
+    <row r="1046848" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046848" s="1"/>
+    </row>
+    <row r="1046849" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046849" s="1"/>
+    </row>
+    <row r="1046850" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046850" s="1"/>
+    </row>
+    <row r="1046851" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046851" s="1"/>
+    </row>
+    <row r="1046852" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046852" s="1"/>
+    </row>
+    <row r="1046853" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046853" s="1"/>
+    </row>
+    <row r="1046854" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046854" s="1"/>
+    </row>
+    <row r="1046855" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046855" s="1"/>
+    </row>
+    <row r="1046856" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046856" s="1"/>
+    </row>
+    <row r="1046857" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046857" s="1"/>
+    </row>
+    <row r="1046858" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046858" s="1"/>
+    </row>
+    <row r="1046859" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046859" s="1"/>
+    </row>
+    <row r="1046860" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046860" s="1"/>
+    </row>
+    <row r="1046861" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046861" s="1"/>
+    </row>
+    <row r="1046862" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046862" s="1"/>
+    </row>
+    <row r="1046863" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046863" s="1"/>
+    </row>
+    <row r="1046864" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046864" s="1"/>
+    </row>
+    <row r="1046865" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046865" s="1"/>
+    </row>
+    <row r="1046866" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046866" s="1"/>
+    </row>
+    <row r="1046867" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046867" s="1"/>
+    </row>
+    <row r="1046868" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046868" s="1"/>
+    </row>
+    <row r="1046869" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046869" s="1"/>
+    </row>
+    <row r="1046870" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046870" s="1"/>
+    </row>
+    <row r="1046871" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046871" s="1"/>
+    </row>
+    <row r="1046872" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046872" s="1"/>
+    </row>
+    <row r="1046873" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046873" s="1"/>
+    </row>
+    <row r="1046874" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046874" s="1"/>
+    </row>
+    <row r="1046875" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046875" s="1"/>
+    </row>
+    <row r="1046876" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046876" s="1"/>
+    </row>
+    <row r="1046877" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046877" s="1"/>
+    </row>
+    <row r="1046878" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046878" s="1"/>
+    </row>
+    <row r="1046879" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046879" s="1"/>
+    </row>
+    <row r="1046880" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046880" s="1"/>
+    </row>
+    <row r="1046881" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046881" s="1"/>
+    </row>
+    <row r="1046882" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046882" s="1"/>
+    </row>
+    <row r="1046883" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046883" s="1"/>
+    </row>
+    <row r="1046884" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046884" s="1"/>
+    </row>
+    <row r="1046885" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046885" s="1"/>
+    </row>
+    <row r="1046886" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046886" s="1"/>
+    </row>
+    <row r="1046887" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046887" s="1"/>
+    </row>
+    <row r="1046888" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046888" s="1"/>
+    </row>
+    <row r="1046889" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046889" s="1"/>
+    </row>
+    <row r="1046890" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046890" s="1"/>
+    </row>
+    <row r="1046891" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046891" s="1"/>
+    </row>
+    <row r="1046892" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046892" s="1"/>
+    </row>
+    <row r="1046893" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046893" s="1"/>
+    </row>
+    <row r="1046894" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046894" s="1"/>
+    </row>
+    <row r="1046895" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046895" s="1"/>
+    </row>
+    <row r="1046896" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046896" s="1"/>
+    </row>
+    <row r="1046897" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046897" s="1"/>
+    </row>
+    <row r="1046898" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046898" s="1"/>
+    </row>
+    <row r="1046899" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046899" s="1"/>
+    </row>
+    <row r="1046900" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046900" s="1"/>
+    </row>
+    <row r="1046901" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046901" s="1"/>
+    </row>
+    <row r="1046902" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046902" s="1"/>
+    </row>
+    <row r="1046903" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046903" s="1"/>
+    </row>
+    <row r="1046904" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046904" s="1"/>
+    </row>
+    <row r="1046905" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046905" s="1"/>
+    </row>
+    <row r="1046906" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046906" s="1"/>
+    </row>
+    <row r="1046907" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046907" s="1"/>
+    </row>
+    <row r="1046908" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046908" s="1"/>
+    </row>
+    <row r="1046909" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046909" s="1"/>
+    </row>
+    <row r="1046910" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046910" s="1"/>
+    </row>
+    <row r="1046911" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046911" s="1"/>
+    </row>
+    <row r="1046912" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046912" s="1"/>
+    </row>
+    <row r="1046913" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046913" s="1"/>
+    </row>
+    <row r="1046914" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046914" s="1"/>
+    </row>
+    <row r="1046915" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046915" s="1"/>
+    </row>
+    <row r="1046916" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046916" s="1"/>
+    </row>
+    <row r="1046917" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046917" s="1"/>
+    </row>
+    <row r="1046918" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046918" s="1"/>
+    </row>
+    <row r="1046919" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046919" s="1"/>
+    </row>
+    <row r="1046920" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046920" s="1"/>
+    </row>
+    <row r="1046921" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046921" s="1"/>
+    </row>
+    <row r="1046922" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046922" s="1"/>
+    </row>
+    <row r="1046923" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046923" s="1"/>
+    </row>
+    <row r="1046924" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046924" s="1"/>
+    </row>
+    <row r="1046925" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046925" s="1"/>
+    </row>
+    <row r="1046926" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046926" s="1"/>
+    </row>
+    <row r="1046927" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046927" s="1"/>
+    </row>
+    <row r="1046928" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046928" s="1"/>
+    </row>
+    <row r="1046929" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046929" s="1"/>
+    </row>
+    <row r="1046930" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046930" s="1"/>
+    </row>
+    <row r="1046931" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046931" s="1"/>
+    </row>
+    <row r="1046932" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046932" s="1"/>
+    </row>
+    <row r="1046933" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046933" s="1"/>
+    </row>
+    <row r="1046934" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046934" s="1"/>
+    </row>
+    <row r="1046935" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046935" s="1"/>
+    </row>
+    <row r="1046936" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046936" s="1"/>
+    </row>
+    <row r="1046937" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046937" s="1"/>
+    </row>
+    <row r="1046938" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046938" s="1"/>
+    </row>
+    <row r="1046939" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046939" s="1"/>
+    </row>
+    <row r="1046940" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046940" s="1"/>
+    </row>
+    <row r="1046941" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046941" s="1"/>
+    </row>
+    <row r="1046942" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046942" s="1"/>
+    </row>
+    <row r="1046943" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046943" s="1"/>
+    </row>
+    <row r="1046944" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046944" s="1"/>
+    </row>
+    <row r="1046945" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046945" s="1"/>
+    </row>
+    <row r="1046946" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046946" s="1"/>
+    </row>
+    <row r="1046947" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046947" s="1"/>
+    </row>
+    <row r="1046948" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046948" s="1"/>
+    </row>
+    <row r="1046949" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046949" s="1"/>
+    </row>
+    <row r="1046950" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046950" s="1"/>
+    </row>
+    <row r="1046951" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046951" s="1"/>
+    </row>
+    <row r="1046952" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046952" s="1"/>
+    </row>
+    <row r="1046953" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046953" s="1"/>
+    </row>
+    <row r="1046954" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046954" s="1"/>
+    </row>
+    <row r="1046955" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046955" s="1"/>
+    </row>
+    <row r="1046956" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046956" s="1"/>
+    </row>
+    <row r="1046957" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046957" s="1"/>
+    </row>
+    <row r="1046958" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046958" s="1"/>
+    </row>
+    <row r="1046959" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046959" s="1"/>
+    </row>
+    <row r="1046960" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046960" s="1"/>
+    </row>
+    <row r="1046961" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046961" s="1"/>
+    </row>
+    <row r="1046962" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046962" s="1"/>
+    </row>
+    <row r="1046963" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046963" s="1"/>
+    </row>
+    <row r="1046964" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046964" s="1"/>
+    </row>
+    <row r="1046965" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046965" s="1"/>
+    </row>
+    <row r="1046966" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046966" s="1"/>
+    </row>
+    <row r="1046967" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046967" s="1"/>
+    </row>
+    <row r="1046968" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046968" s="1"/>
+    </row>
+    <row r="1046969" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046969" s="1"/>
+    </row>
+    <row r="1046970" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046970" s="1"/>
+    </row>
+    <row r="1046971" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046971" s="1"/>
+    </row>
+    <row r="1046972" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046972" s="1"/>
+    </row>
+    <row r="1046973" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046973" s="1"/>
+    </row>
+    <row r="1046974" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046974" s="1"/>
+    </row>
+    <row r="1046975" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046975" s="1"/>
+    </row>
+    <row r="1046976" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046976" s="1"/>
+    </row>
+    <row r="1046977" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046977" s="1"/>
+    </row>
+    <row r="1046978" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046978" s="1"/>
+    </row>
+    <row r="1046979" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046979" s="1"/>
+    </row>
+    <row r="1046980" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046980" s="1"/>
+    </row>
+    <row r="1046981" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046981" s="1"/>
+    </row>
+    <row r="1046982" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046982" s="1"/>
+    </row>
+    <row r="1046983" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046983" s="1"/>
+    </row>
+    <row r="1046984" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046984" s="1"/>
+    </row>
+    <row r="1046985" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046985" s="1"/>
+    </row>
+    <row r="1046986" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046986" s="1"/>
+    </row>
+    <row r="1046987" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046987" s="1"/>
+    </row>
+    <row r="1046988" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046988" s="1"/>
+    </row>
+    <row r="1046989" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046989" s="1"/>
+    </row>
+    <row r="1046990" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046990" s="1"/>
+    </row>
+    <row r="1046991" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046991" s="1"/>
+    </row>
+    <row r="1046992" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046992" s="1"/>
+    </row>
+    <row r="1046993" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046993" s="1"/>
+    </row>
+    <row r="1046994" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046994" s="1"/>
+    </row>
+    <row r="1046995" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046995" s="1"/>
+    </row>
+    <row r="1046996" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046996" s="1"/>
+    </row>
+    <row r="1046997" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046997" s="1"/>
+    </row>
+    <row r="1046998" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046998" s="1"/>
+    </row>
+    <row r="1046999" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046999" s="1"/>
+    </row>
+    <row r="1047000" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047000" s="1"/>
+    </row>
+    <row r="1047001" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047001" s="1"/>
+    </row>
+    <row r="1047002" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047002" s="1"/>
+    </row>
+    <row r="1047003" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047003" s="1"/>
+    </row>
+    <row r="1047004" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047004" s="1"/>
+    </row>
+    <row r="1047005" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047005" s="1"/>
+    </row>
+    <row r="1047006" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047006" s="1"/>
+    </row>
+    <row r="1047007" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047007" s="1"/>
+    </row>
+    <row r="1047008" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047008" s="1"/>
+    </row>
+    <row r="1047009" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047009" s="1"/>
+    </row>
+    <row r="1047010" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047010" s="1"/>
+    </row>
+    <row r="1047011" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047011" s="1"/>
+    </row>
+    <row r="1047012" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047012" s="1"/>
+    </row>
+    <row r="1047623" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047623" s="3"/>
+      <c r="G1047623" s="3"/>
+    </row>
+    <row r="1047624" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047624" s="1"/>
+      <c r="G1047624" s="1"/>
+    </row>
+    <row r="1047625" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047625" s="1"/>
+      <c r="G1047625" s="1"/>
+    </row>
+    <row r="1047626" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047626" s="1"/>
+      <c r="G1047626" s="1"/>
+    </row>
+    <row r="1047627" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047627" s="1"/>
+      <c r="G1047627" s="1"/>
+    </row>
+    <row r="1047628" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047628" s="1"/>
+      <c r="G1047628" s="1"/>
+    </row>
+    <row r="1047629" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047629" s="1"/>
+      <c r="G1047629" s="1"/>
+    </row>
+    <row r="1047630" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047630" s="1"/>
+      <c r="G1047630" s="1"/>
+    </row>
+    <row r="1047631" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047631" s="1"/>
+      <c r="G1047631" s="1"/>
+    </row>
+    <row r="1047632" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047632" s="1"/>
+      <c r="G1047632" s="1"/>
+    </row>
+    <row r="1047633" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047633" s="1"/>
+      <c r="G1047633" s="1"/>
+    </row>
+    <row r="1047634" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047634" s="1"/>
+      <c r="G1047634" s="1"/>
+    </row>
+    <row r="1047635" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047635" s="1"/>
+      <c r="G1047635" s="1"/>
+    </row>
+    <row r="1047636" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047636" s="1"/>
+      <c r="G1047636" s="1"/>
+    </row>
+    <row r="1047637" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047637" s="1"/>
+      <c r="G1047637" s="1"/>
+    </row>
+    <row r="1047638" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047638" s="1"/>
+      <c r="G1047638" s="1"/>
+    </row>
+    <row r="1047639" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047639" s="1"/>
+      <c r="G1047639" s="1"/>
+    </row>
+    <row r="1047640" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047640" s="1"/>
+      <c r="G1047640" s="1"/>
+    </row>
+    <row r="1047641" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047641" s="1"/>
+      <c r="G1047641" s="1"/>
+    </row>
+    <row r="1047642" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047642" s="1"/>
+      <c r="G1047642" s="1"/>
+    </row>
+    <row r="1047643" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047643" s="1"/>
+      <c r="G1047643" s="1"/>
+    </row>
+    <row r="1047644" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047644" s="1"/>
+      <c r="G1047644" s="1"/>
+    </row>
+    <row r="1047645" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047645" s="1"/>
+      <c r="G1047645" s="1"/>
+    </row>
+    <row r="1047646" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047646" s="1"/>
+      <c r="G1047646" s="1"/>
+    </row>
+    <row r="1047647" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047647" s="1"/>
+      <c r="G1047647" s="1"/>
+    </row>
+    <row r="1047648" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047648" s="1"/>
+      <c r="G1047648" s="1"/>
+    </row>
+    <row r="1047649" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047649" s="1"/>
+      <c r="G1047649" s="1"/>
+    </row>
+    <row r="1047650" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047650" s="1"/>
+      <c r="G1047650" s="1"/>
+    </row>
+    <row r="1047651" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047651" s="1"/>
+      <c r="G1047651" s="1"/>
+    </row>
+    <row r="1047652" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047652" s="1"/>
+      <c r="G1047652" s="1"/>
+    </row>
+    <row r="1047653" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047653" s="1"/>
+      <c r="G1047653" s="1"/>
+    </row>
+    <row r="1047654" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047654" s="1"/>
+      <c r="G1047654" s="1"/>
+    </row>
+    <row r="1047655" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047655" s="1"/>
+      <c r="G1047655" s="1"/>
+    </row>
+    <row r="1047656" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047656" s="1"/>
+      <c r="G1047656" s="1"/>
+    </row>
+    <row r="1047657" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047657" s="1"/>
+      <c r="G1047657" s="1"/>
+    </row>
+    <row r="1047658" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047658" s="1"/>
+      <c r="G1047658" s="1"/>
+    </row>
+    <row r="1047659" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047659" s="1"/>
+      <c r="G1047659" s="1"/>
+    </row>
+    <row r="1047660" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047660" s="1"/>
+      <c r="G1047660" s="1"/>
+    </row>
+    <row r="1047661" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047661" s="1"/>
+      <c r="G1047661" s="1"/>
+    </row>
+    <row r="1047662" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047662" s="1"/>
+      <c r="G1047662" s="1"/>
+    </row>
+    <row r="1047663" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047663" s="1"/>
+      <c r="G1047663" s="1"/>
+    </row>
+    <row r="1047664" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047664" s="1"/>
+      <c r="G1047664" s="1"/>
+    </row>
+    <row r="1047665" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047665" s="1"/>
+      <c r="G1047665" s="1"/>
+    </row>
+    <row r="1047666" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047666" s="1"/>
+      <c r="G1047666" s="1"/>
+    </row>
+    <row r="1047667" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047667" s="1"/>
+      <c r="G1047667" s="1"/>
+    </row>
+    <row r="1047668" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047668" s="1"/>
+      <c r="G1047668" s="1"/>
+    </row>
+    <row r="1047669" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047669" s="1"/>
+      <c r="G1047669" s="1"/>
+    </row>
+    <row r="1047670" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047670" s="1"/>
+      <c r="G1047670" s="1"/>
+    </row>
+    <row r="1047671" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047671" s="1"/>
+      <c r="G1047671" s="1"/>
+    </row>
+    <row r="1047672" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047672" s="1"/>
+      <c r="G1047672" s="1"/>
+    </row>
+    <row r="1047673" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047673" s="1"/>
+      <c r="G1047673" s="1"/>
+    </row>
+    <row r="1047674" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047674" s="1"/>
+      <c r="G1047674" s="1"/>
+    </row>
+    <row r="1047675" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047675" s="1"/>
+      <c r="G1047675" s="1"/>
+    </row>
+    <row r="1047676" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047676" s="1"/>
+      <c r="G1047676" s="1"/>
+    </row>
+    <row r="1047677" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047677" s="1"/>
+      <c r="G1047677" s="1"/>
+    </row>
+    <row r="1047678" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047678" s="1"/>
+      <c r="G1047678" s="1"/>
+    </row>
+    <row r="1047679" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047679" s="1"/>
+      <c r="G1047679" s="1"/>
+    </row>
+    <row r="1047680" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047680" s="1"/>
+      <c r="G1047680" s="1"/>
+    </row>
+    <row r="1047681" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047681" s="1"/>
+      <c r="G1047681" s="1"/>
+    </row>
+    <row r="1047682" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047682" s="1"/>
+      <c r="G1047682" s="1"/>
+    </row>
+    <row r="1047683" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047683" s="1"/>
+      <c r="G1047683" s="1"/>
+    </row>
+    <row r="1047684" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047684" s="1"/>
+      <c r="G1047684" s="1"/>
+    </row>
+    <row r="1047685" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047685" s="1"/>
+      <c r="G1047685" s="1"/>
+    </row>
+    <row r="1047686" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047686" s="1"/>
+      <c r="G1047686" s="1"/>
+    </row>
+    <row r="1047687" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047687" s="1"/>
+      <c r="G1047687" s="1"/>
+    </row>
+    <row r="1047688" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047688" s="1"/>
+      <c r="G1047688" s="1"/>
+    </row>
+    <row r="1047689" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047689" s="1"/>
+      <c r="G1047689" s="1"/>
+    </row>
+    <row r="1047690" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047690" s="1"/>
+      <c r="G1047690" s="1"/>
+    </row>
+    <row r="1047691" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047691" s="1"/>
+      <c r="G1047691" s="1"/>
+    </row>
+    <row r="1047692" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047692" s="1"/>
+      <c r="G1047692" s="1"/>
+    </row>
+    <row r="1047693" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047693" s="1"/>
+      <c r="G1047693" s="1"/>
+    </row>
+    <row r="1047694" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047694" s="1"/>
+      <c r="G1047694" s="1"/>
+    </row>
+    <row r="1047695" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047695" s="1"/>
+      <c r="G1047695" s="1"/>
+    </row>
+    <row r="1047696" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047696" s="1"/>
+      <c r="G1047696" s="1"/>
+    </row>
+    <row r="1047697" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047697" s="1"/>
+      <c r="G1047697" s="1"/>
+    </row>
+    <row r="1047698" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047698" s="1"/>
+      <c r="G1047698" s="1"/>
+    </row>
+    <row r="1047699" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047699" s="1"/>
+      <c r="G1047699" s="1"/>
+    </row>
+    <row r="1047700" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047700" s="1"/>
+      <c r="G1047700" s="1"/>
+    </row>
+    <row r="1047701" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047701" s="1"/>
+      <c r="G1047701" s="1"/>
+    </row>
+    <row r="1047702" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047702" s="1"/>
+      <c r="G1047702" s="1"/>
+    </row>
+    <row r="1047703" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047703" s="1"/>
+      <c r="G1047703" s="1"/>
+    </row>
+    <row r="1047704" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047704" s="1"/>
+      <c r="G1047704" s="1"/>
+    </row>
+    <row r="1047705" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047705" s="1"/>
+      <c r="G1047705" s="1"/>
+    </row>
+    <row r="1047706" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047706" s="1"/>
+      <c r="G1047706" s="1"/>
+    </row>
+    <row r="1047707" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047707" s="1"/>
+      <c r="G1047707" s="1"/>
+    </row>
+    <row r="1047708" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047708" s="1"/>
+      <c r="G1047708" s="1"/>
+    </row>
+    <row r="1047709" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047709" s="1"/>
+      <c r="G1047709" s="1"/>
+    </row>
+    <row r="1047710" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047710" s="1"/>
+      <c r="G1047710" s="1"/>
+    </row>
+    <row r="1047711" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047711" s="1"/>
+      <c r="G1047711" s="1"/>
+    </row>
+    <row r="1047712" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047712" s="1"/>
+      <c r="G1047712" s="1"/>
+    </row>
+    <row r="1047713" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047713" s="1"/>
+      <c r="G1047713" s="1"/>
+    </row>
+    <row r="1047714" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047714" s="1"/>
+      <c r="G1047714" s="1"/>
+    </row>
+    <row r="1047715" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047715" s="1"/>
+      <c r="G1047715" s="1"/>
+    </row>
+    <row r="1047716" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047716" s="1"/>
+      <c r="G1047716" s="1"/>
+    </row>
+    <row r="1047717" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047717" s="1"/>
+    </row>
+    <row r="1047718" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047718" s="1"/>
+    </row>
+    <row r="1047719" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047719" s="1"/>
+    </row>
+    <row r="1047720" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047720" s="1"/>
+    </row>
+    <row r="1047721" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047721" s="1"/>
+    </row>
+    <row r="1047722" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047722" s="1"/>
+    </row>
+    <row r="1047723" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047723" s="1"/>
+    </row>
+    <row r="1047724" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047724" s="1"/>
+    </row>
+    <row r="1047725" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047725" s="1"/>
+    </row>
+    <row r="1047726" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047726" s="1"/>
+    </row>
+    <row r="1047727" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047727" s="1"/>
+    </row>
+    <row r="1047728" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1047728" s="1"/>
+    </row>
+    <row r="1047729" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047729" s="1"/>
+    </row>
+    <row r="1047730" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047730" s="1"/>
+    </row>
+    <row r="1047731" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047731" s="1"/>
+    </row>
+    <row r="1047732" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047732" s="1"/>
+    </row>
+    <row r="1047733" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047733" s="1"/>
+    </row>
+    <row r="1047734" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047734" s="1"/>
+    </row>
+    <row r="1047735" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047735" s="1"/>
+    </row>
+    <row r="1047736" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047736" s="1"/>
+    </row>
+    <row r="1047737" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047737" s="1"/>
+    </row>
+    <row r="1047738" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047738" s="1"/>
+    </row>
+    <row r="1047739" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047739" s="1"/>
+    </row>
+    <row r="1047740" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047740" s="1"/>
+    </row>
+    <row r="1047741" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047741" s="1"/>
+    </row>
+    <row r="1047742" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047742" s="1"/>
+    </row>
+    <row r="1047743" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047743" s="1"/>
+    </row>
+    <row r="1047744" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047744" s="1"/>
+    </row>
+    <row r="1047745" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047745" s="1"/>
+    </row>
+    <row r="1047746" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047746" s="1"/>
+    </row>
+    <row r="1047747" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047747" s="1"/>
+    </row>
+    <row r="1047748" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047748" s="1"/>
+    </row>
+    <row r="1047749" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047749" s="1"/>
+    </row>
+    <row r="1047750" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047750" s="1"/>
+    </row>
+    <row r="1047751" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047751" s="1"/>
+    </row>
+    <row r="1047752" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047752" s="1"/>
+    </row>
+    <row r="1047753" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047753" s="1"/>
+    </row>
+    <row r="1047754" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047754" s="1"/>
+    </row>
+    <row r="1047755" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047755" s="1"/>
+    </row>
+    <row r="1047756" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047756" s="1"/>
+    </row>
+    <row r="1047757" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047757" s="1"/>
+    </row>
+    <row r="1047758" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047758" s="1"/>
+    </row>
+    <row r="1047759" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047759" s="1"/>
+    </row>
+    <row r="1047760" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047760" s="1"/>
+    </row>
+    <row r="1047761" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047761" s="1"/>
+    </row>
+    <row r="1047762" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047762" s="1"/>
+    </row>
+    <row r="1047763" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047763" s="1"/>
+    </row>
+    <row r="1047764" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047764" s="1"/>
+    </row>
+    <row r="1047765" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047765" s="1"/>
+    </row>
+    <row r="1047766" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047766" s="1"/>
+    </row>
+    <row r="1047767" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047767" s="1"/>
+    </row>
+    <row r="1047768" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047768" s="1"/>
+    </row>
+    <row r="1047769" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047769" s="1"/>
+    </row>
+    <row r="1047770" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047770" s="1"/>
+    </row>
+    <row r="1047771" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047771" s="1"/>
+    </row>
+    <row r="1047772" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047772" s="1"/>
+    </row>
+    <row r="1047773" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047773" s="1"/>
+    </row>
+    <row r="1047774" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047774" s="1"/>
+    </row>
+    <row r="1047775" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047775" s="1"/>
+    </row>
+    <row r="1047776" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047776" s="1"/>
+    </row>
+    <row r="1047777" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047777" s="1"/>
+    </row>
+    <row r="1047778" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047778" s="1"/>
+    </row>
+    <row r="1047779" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047779" s="1"/>
+    </row>
+    <row r="1047780" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047780" s="1"/>
+    </row>
+    <row r="1047781" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047781" s="1"/>
+    </row>
+    <row r="1047782" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047782" s="1"/>
+    </row>
+    <row r="1047783" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047783" s="1"/>
+    </row>
+    <row r="1047784" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047784" s="1"/>
+    </row>
+    <row r="1047785" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047785" s="1"/>
+    </row>
+    <row r="1047786" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047786" s="1"/>
+    </row>
+    <row r="1047787" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047787" s="1"/>
+    </row>
+    <row r="1047788" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047788" s="1"/>
+    </row>
+    <row r="1047789" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047789" s="1"/>
+    </row>
+    <row r="1047790" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047790" s="1"/>
+    </row>
+    <row r="1047791" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047791" s="1"/>
+    </row>
+    <row r="1047792" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047792" s="1"/>
+    </row>
+    <row r="1047793" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047793" s="1"/>
+    </row>
+    <row r="1047794" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047794" s="1"/>
+    </row>
+    <row r="1047795" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047795" s="1"/>
+    </row>
+    <row r="1047796" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047796" s="1"/>
+    </row>
+    <row r="1047797" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047797" s="1"/>
+    </row>
+    <row r="1047798" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047798" s="1"/>
+    </row>
+    <row r="1047799" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047799" s="1"/>
+    </row>
+    <row r="1047800" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047800" s="1"/>
+    </row>
+    <row r="1047801" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047801" s="1"/>
+    </row>
+    <row r="1047802" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047802" s="1"/>
+    </row>
+    <row r="1047803" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047803" s="1"/>
+    </row>
+    <row r="1047804" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047804" s="1"/>
+    </row>
+    <row r="1047805" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047805" s="1"/>
+    </row>
+    <row r="1047806" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047806" s="1"/>
+    </row>
+    <row r="1047807" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047807" s="1"/>
+    </row>
+    <row r="1047808" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047808" s="1"/>
+    </row>
+    <row r="1047809" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047809" s="1"/>
+    </row>
+    <row r="1047810" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047810" s="1"/>
+    </row>
+    <row r="1047811" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047811" s="1"/>
+    </row>
+    <row r="1047812" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047812" s="1"/>
+    </row>
+    <row r="1047813" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047813" s="1"/>
+    </row>
+    <row r="1047814" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047814" s="1"/>
+    </row>
+    <row r="1047815" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047815" s="1"/>
+    </row>
+    <row r="1047816" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047816" s="1"/>
+    </row>
+    <row r="1047817" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047817" s="1"/>
+    </row>
+    <row r="1047818" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047818" s="1"/>
+    </row>
+    <row r="1047819" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047819" s="1"/>
+    </row>
+    <row r="1047820" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047820" s="1"/>
+    </row>
+    <row r="1047821" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047821" s="1"/>
+    </row>
+    <row r="1047822" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047822" s="1"/>
+    </row>
+    <row r="1047823" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047823" s="1"/>
+    </row>
+    <row r="1047824" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047824" s="1"/>
+    </row>
+    <row r="1047825" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047825" s="1"/>
+    </row>
+    <row r="1047826" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047826" s="1"/>
+    </row>
+    <row r="1047827" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047827" s="1"/>
+    </row>
+    <row r="1047828" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047828" s="1"/>
+    </row>
+    <row r="1047829" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047829" s="1"/>
+    </row>
+    <row r="1047830" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047830" s="1"/>
+    </row>
+    <row r="1047831" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047831" s="1"/>
+    </row>
+    <row r="1047832" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047832" s="1"/>
+    </row>
+    <row r="1047833" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047833" s="1"/>
+    </row>
+    <row r="1047834" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047834" s="1"/>
+    </row>
+    <row r="1047835" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047835" s="1"/>
+    </row>
+    <row r="1047836" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047836" s="1"/>
+    </row>
+    <row r="1047837" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047837" s="1"/>
+    </row>
+    <row r="1047838" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047838" s="1"/>
+    </row>
+    <row r="1047839" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047839" s="1"/>
+    </row>
+    <row r="1047840" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047840" s="1"/>
+    </row>
+    <row r="1047841" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047841" s="1"/>
+    </row>
+    <row r="1047842" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047842" s="1"/>
+    </row>
+    <row r="1047843" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047843" s="1"/>
+    </row>
+    <row r="1047844" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047844" s="1"/>
+    </row>
+    <row r="1047845" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047845" s="1"/>
+    </row>
+    <row r="1047846" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047846" s="1"/>
+    </row>
+    <row r="1047847" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047847" s="1"/>
+    </row>
+    <row r="1047848" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047848" s="1"/>
+    </row>
+    <row r="1047849" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047849" s="1"/>
+    </row>
+    <row r="1047850" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047850" s="1"/>
+    </row>
+    <row r="1047851" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047851" s="1"/>
+    </row>
+    <row r="1047852" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047852" s="1"/>
+    </row>
+    <row r="1047853" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047853" s="1"/>
+    </row>
+    <row r="1047854" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047854" s="1"/>
+    </row>
+    <row r="1047855" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047855" s="1"/>
+    </row>
+    <row r="1047856" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047856" s="1"/>
+    </row>
+    <row r="1047857" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047857" s="1"/>
+    </row>
+    <row r="1047858" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047858" s="1"/>
+    </row>
+    <row r="1047859" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047859" s="1"/>
+    </row>
+    <row r="1047860" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047860" s="1"/>
+    </row>
+    <row r="1047861" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047861" s="1"/>
+    </row>
+    <row r="1047862" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047862" s="1"/>
+    </row>
+    <row r="1047863" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047863" s="1"/>
+    </row>
+    <row r="1047864" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047864" s="1"/>
+    </row>
+    <row r="1047865" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047865" s="1"/>
+    </row>
+    <row r="1047866" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047866" s="1"/>
+    </row>
+    <row r="1047867" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047867" s="1"/>
+    </row>
+    <row r="1047868" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047868" s="1"/>
+    </row>
+    <row r="1047869" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047869" s="1"/>
+    </row>
+    <row r="1047870" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047870" s="1"/>
+    </row>
+    <row r="1047871" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047871" s="1"/>
+    </row>
+    <row r="1047872" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047872" s="1"/>
+    </row>
+    <row r="1047873" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047873" s="1"/>
+    </row>
+    <row r="1047874" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047874" s="1"/>
+    </row>
+    <row r="1047875" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047875" s="1"/>
+    </row>
+    <row r="1047876" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047876" s="1"/>
+    </row>
+    <row r="1047877" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047877" s="1"/>
+    </row>
+    <row r="1047878" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047878" s="1"/>
+    </row>
+    <row r="1047879" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047879" s="1"/>
+    </row>
+    <row r="1047880" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047880" s="1"/>
+    </row>
+    <row r="1047881" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047881" s="1"/>
+    </row>
+    <row r="1047882" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047882" s="1"/>
+    </row>
+    <row r="1047883" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047883" s="1"/>
+    </row>
+    <row r="1047884" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047884" s="1"/>
+    </row>
+    <row r="1047885" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047885" s="1"/>
+    </row>
+    <row r="1047886" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047886" s="1"/>
+    </row>
+    <row r="1047887" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047887" s="1"/>
+    </row>
+    <row r="1047888" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047888" s="1"/>
+    </row>
+    <row r="1047889" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047889" s="1"/>
+    </row>
+    <row r="1047890" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047890" s="1"/>
+    </row>
+    <row r="1047891" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047891" s="1"/>
+    </row>
+    <row r="1047892" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047892" s="1"/>
+    </row>
+    <row r="1047893" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047893" s="1"/>
+    </row>
+    <row r="1047894" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047894" s="1"/>
+    </row>
+    <row r="1047895" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047895" s="1"/>
+    </row>
+    <row r="1047896" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047896" s="1"/>
+    </row>
+    <row r="1047897" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047897" s="1"/>
+    </row>
+    <row r="1047898" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047898" s="1"/>
+    </row>
+    <row r="1047899" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047899" s="1"/>
+    </row>
+    <row r="1047900" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047900" s="1"/>
+    </row>
+    <row r="1047901" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047901" s="1"/>
+    </row>
+    <row r="1047902" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047902" s="1"/>
+    </row>
+    <row r="1047903" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047903" s="1"/>
+    </row>
+    <row r="1047904" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047904" s="1"/>
+    </row>
+    <row r="1047905" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047905" s="1"/>
+    </row>
+    <row r="1047906" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047906" s="1"/>
+    </row>
+    <row r="1047907" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047907" s="1"/>
+    </row>
+    <row r="1047908" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047908" s="1"/>
+    </row>
+    <row r="1047909" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047909" s="1"/>
+    </row>
+    <row r="1047910" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047910" s="1"/>
+    </row>
+    <row r="1047911" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047911" s="1"/>
+    </row>
+    <row r="1047912" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047912" s="1"/>
+    </row>
+    <row r="1047913" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047913" s="1"/>
+    </row>
+    <row r="1047914" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047914" s="1"/>
+    </row>
+    <row r="1047915" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047915" s="1"/>
+    </row>
+    <row r="1047916" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047916" s="1"/>
+    </row>
+    <row r="1047917" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047917" s="1"/>
+    </row>
+    <row r="1047918" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047918" s="1"/>
+    </row>
+    <row r="1047919" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047919" s="1"/>
+    </row>
+    <row r="1047920" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047920" s="1"/>
+    </row>
+    <row r="1047921" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047921" s="1"/>
+    </row>
+    <row r="1047922" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047922" s="1"/>
+    </row>
+    <row r="1047923" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047923" s="1"/>
+    </row>
+    <row r="1047924" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047924" s="1"/>
+    </row>
+    <row r="1047925" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047925" s="1"/>
+    </row>
+    <row r="1047926" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047926" s="1"/>
+    </row>
+    <row r="1047927" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047927" s="1"/>
+    </row>
+    <row r="1047928" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047928" s="1"/>
+    </row>
+    <row r="1047929" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047929" s="1"/>
+    </row>
+    <row r="1047930" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047930" s="1"/>
+    </row>
+    <row r="1047931" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047931" s="1"/>
+    </row>
+    <row r="1047932" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047932" s="1"/>
+    </row>
+    <row r="1047933" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047933" s="1"/>
+    </row>
+    <row r="1047934" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047934" s="1"/>
+    </row>
+    <row r="1047935" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047935" s="1"/>
+    </row>
+    <row r="1047936" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047936" s="1"/>
+    </row>
+    <row r="1047937" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047937" s="1"/>
+    </row>
+    <row r="1047938" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047938" s="1"/>
+    </row>
+    <row r="1047939" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047939" s="1"/>
+    </row>
+    <row r="1047940" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047940" s="1"/>
+    </row>
+    <row r="1047941" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047941" s="1"/>
+    </row>
+    <row r="1047942" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047942" s="1"/>
+    </row>
+    <row r="1047943" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047943" s="1"/>
+    </row>
+    <row r="1047944" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047944" s="1"/>
+    </row>
+    <row r="1047945" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047945" s="1"/>
+    </row>
+    <row r="1047946" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047946" s="1"/>
+    </row>
+    <row r="1047947" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047947" s="1"/>
+    </row>
+    <row r="1047948" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047948" s="1"/>
+    </row>
+    <row r="1047949" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047949" s="1"/>
+    </row>
+    <row r="1047950" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047950" s="1"/>
+    </row>
+    <row r="1047951" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047951" s="1"/>
+    </row>
+    <row r="1047952" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047952" s="1"/>
+    </row>
+    <row r="1047953" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047953" s="1"/>
+    </row>
+    <row r="1047954" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047954" s="1"/>
+    </row>
+    <row r="1047955" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047955" s="1"/>
+    </row>
+    <row r="1047956" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047956" s="1"/>
+    </row>
+    <row r="1047957" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047957" s="1"/>
+    </row>
+    <row r="1047958" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047958" s="1"/>
+    </row>
+    <row r="1047959" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047959" s="1"/>
+    </row>
+    <row r="1047960" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047960" s="1"/>
+    </row>
+    <row r="1047961" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047961" s="1"/>
+    </row>
+    <row r="1047962" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047962" s="1"/>
+    </row>
+    <row r="1047963" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047963" s="1"/>
+    </row>
+    <row r="1047964" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047964" s="1"/>
+    </row>
+    <row r="1047965" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047965" s="1"/>
+    </row>
+    <row r="1047966" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1047966" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1300">
+  <autoFilter ref="A1:E1300" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="11"/>
